--- a/2421485863/localisation/excel/replace/r56e_technology_l_german.xlsx
+++ b/2421485863/localisation/excel/replace/r56e_technology_l_german.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="1041">
   <si>
     <t xml:space="preserve">#####---------------------------------------------------------------------&gt; Mod by Sig "GreatExperiment" Altre et al</t>
   </si>
@@ -2152,196 +2152,322 @@
     <t xml:space="preserve">###------&gt; Jaeger   &lt;&gt;&lt;&gt; &lt;&gt;&lt;&gt; &lt;&gt;&lt;&gt; &lt;&gt;&lt;&gt; &lt;&gt;&lt;&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> jaeger:0"Jaeger Infantry"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jaeger_desc:0"Jaegers are forces that specialize in surviving the cold and the wilderness of the boreal forest. Usually, these troops are native to their territory and take longer to train.[~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jungletroop:0"Jungle Infantry"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jungletroop_desc:0"Jungle Specialists are trained to sustain the harsh conditions of Jungle Warfare and challenge the Enemy on their terms.[~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> desertinfantry:0"Desert Infantry"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> desertinfantry_desc:0"Combat in the Desert ranges exposes troops to many perils but sometimes cannot be avoided. We can minimize these risks by providing our soldiers with specialized training for this environment.[~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> shocktroop:0"Shock Troops"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> shocktroop_desc:0"Shock Troops can smash into Enemy lines to achieve a breakthrough. This is almost essential to any form of Deep-Battle and can significantly contribute to throwing the defenders into disarray."</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jaegers:0"Jaeger Infantry I"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jaegers_desc:0"Jaegers are forces that specialize in surviving the cold and the wilderness of the boreal forest. Usually, these troops are native to their territory and take longer to train. [~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jaegers2:0"Jaeger Infantry II"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jaegers2_desc:0"Is it cold out, or is it just me? [~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jaegers3:0"Jaeger Infantry III"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jaegers3_desc:0"Is it cold out, or is it just me? [~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jaegers4:0"Jaeger Infantry IV"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jaegers4_desc:0"Is it cold out, or is it just me? [~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jaegers5:0"Jaeger Infantry V"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jaegers5_desc:0"Is it cold out, or is it just me? [~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jaegers6:0"Jaeger Infantry VI"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jaegers6_desc:0"Is it cold out, or is it just me? [~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jungletroops:0"Jungle Infantry I"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jungletroops_desc:0"Jungle Specialists are trained to sustain the harsh conditions of Jungle Warfare and challenge the Enemy on their terms.[~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jungletroops2:0"Jungle Infantry II"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jungletroops2_desc:0"Jungle Specialists are trained to sustain the harsh conditions of Jungle Warfare and to cope with the frequent lack of supplies. [~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jungletroops3:0"Jungle Infantry III"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jungletroops3_desc:0"Jungle Specialists are trained to sustain the harsh conditions of Jungle Warfare and to cope with the frequent lack of supplies. [~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jungletroops4:0"Jungle Infantry IV"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jungletroops4_desc:0"Jungle Specialists are trained to sustain the harsh conditions of Jungle Warfare and to cope with the frequent lack of supplies. [~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jungletroops5:0"Jungle Infantry V"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jungletroops5_desc:0"Jungle Specialists are trained to sustain the harsh conditions of Jungle Warfare and to cope with the frequent lack of supplies. [~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jungletroops6:0"Jungle Infantry VI"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jungletroops6_desc:0"Jungle Specialists are trained to sustain the harsh conditions of Jungle Warfare and to cope with the frequent lack of supplies. [~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> shocktroops:0"Shock Troops I"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> shocktroops_desc:0"Shock Troops are used to heavily assault the defensive lines of your enemy to achieve a breakthrough in specific places. These units have a higher breakthrough and hard attack compared to regular infantry. However, Shock Troops or Stoßtruppen also have a higher supply consumption and an increased recovery time."</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> shocktroops2:0"Shock Troops II"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> shocktroops2_desc:0"Shock Troops are used to heavily assault the defensive lines of your enemy to achieve a breakthrough in specific places. These units have a higher breakthrough and hard attack compared to regular infantry. However, Shock Troops or Stoßtruppen also have a higher supply consumption and an increased recovery time."</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> shocktroops3:0"Shock Troops III"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> shocktroops3_desc:0"Shock Troops are used to heavily assault the defensive lines of your enemy to achieve a breakthrough in specific places. These units have a higher breakthrough and hard attack compared to regular infantry. However, Shock Troops or Stoßtruppen also have a higher supply consumption and an increased recovery time."</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> shocktroops4:0"Shock Troops IV"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> shocktroops4_desc:0"Shock Troops are used to heavily assault the defensive lines of your enemy to achieve a breakthrough in specific places. These units have a higher breakthrough and hard attack compared to regular infantry. However, Shock Troops or Stoßtruppen also have a higher supply consumption and an increased recovery time."</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> shocktroops5:0"Shock Troops V"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> shocktroops5_desc:0"Shock Troops are used to heavily assault the defensive lines of your enemy to achieve a breakthrough in specific places. These units have a higher breakthrough and hard attack compared to regular infantry. However, Shock Troops or Stoßtruppen also have a higher supply consumption and an increased recovery time."</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> shocktroops6:0"Shock Troops VI"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> shocktroops6_desc:0"Shock Troops are used to heavily assault the defensive lines of your enemy to achieve a breakthrough in specific places. These units have a higher breakthrough and hard attack compared to regular infantry. However, Shock Troops or Stoßtruppen also have a higher supply consumption and an increased recovery time."</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> desertinfantry_at:0"Desert Infantry I"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> desertinfantry_at_desc:0"Combat in the Desert ranges exposes troops to many perils but sometimes cannot be avoided. We can minimize these risks by providing our soldiers with specialized training for this environment.[~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> desertinfantry_at2:0"Desert Infantry II"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> desertinfantry_at2_desc:0"The sandy mountains of the desert can be treacherous to your regular Infantry. To cope in this environment, we can train our Desert Infantry to gain the upper hand in the desert.[~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> desertinfantry_at3:0"Desert Infantry III"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> desertinfantry_at3_desc:0"The sandy mountains of the desert can be treacherous to your regular Infantry. To cope in this environment, we can train our Desert Infantry to gain the upper hand in the desert.[~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> desertinfantry_at4:0"Desert Infantry IV"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> desertinfantry_at4_desc:0"The sandy mountains of the desert can be treacherous to your regular Infantry. To cope in this environment, we can train our Desert Infantry to gain the upper hand in the desert.[~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> desertinfantry_at5:0"Desert Infantry V"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> desertinfantry_at5_desc:0"The sandy mountains of the desert can be treacherous to your regular Infantry. To cope in this environment, we can train our Desert Infantry to gain the upper hand in the desert.[~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> desertinfantry_at6:0"Desert Infantry VI"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> desertinfantry_at6_desc:0"The sandy mountains of the desert can be treacherous to your regular Infantry. To cope in this environment, we can train our Desert Infantry to gain the upper hand in the desert.[~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tech_flamethrower:0"Flamethrower I"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tech_flamethrower_desc:0"Flamethrowers are useful in close combat and urban warfare and against fixed fortifications. These also add a substantial soft attack to our divisions."</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tech_flamethrower2:0"Flamethrower II"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tech_flamethrower2_desc:0"Flamethrowers are useful in close combat and urban warfare and against fixed fortifications. These also add a substantial soft attack to our divisions."</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tech_flamethrower3:0"Flamethrower III"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tech_flamethrower3_desc:0"Flamethrowers are useful in close combat and urban warfare and against fixed fortifications. These also add a substantial soft attack to our divisions."</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tech_flamethrower4:0"Flamethrower IV"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tech_flamethrower4_desc:0"Flamethrowers are useful in close combat and urban warfare and against fixed fortifications. These also add a substantial soft attack to our divisions."</t>
+    <t xml:space="preserve"> jaeger:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Jaeger Infantry" ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jaeger_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Jaegers are forces that specialize in surviving the cold and the wilderness of the boreal forest. Usually, these troops are native to their territory and take longer to train.\n \n§GThis unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion§!" ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jungletroop:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Jungle Infantry" ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jungletroop_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Jungle Specialists are trained to sustain the harsh conditions of Jungle Warfare and challenge the Enemy on their terms.\n \n§GThis unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion§!" ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> desertinfantry:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Desert Infantry" ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> desertinfantry_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Combat in the Desert ranges exposes troops to many perils but sometimes cannot be avoided. We can minimize these risks by providing our soldiers with specialized training for this environment.\n \n§GThis unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion§!" ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> shocktroop:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Shock Troops" ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> shocktroop_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Shock Troops can smash into Enemy lines to achieve a breakthrough. This is almost essential to any form of Deep-Battle and can significantly contribute to throwing the defenders into disarray." ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jaegers:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Jaeger Infantry I" ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jaegers_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Jaegers are forces that specialize in surviving the cold and the wilderness of the boreal forest. Usually, these troops are native to their territory and take longer to train. \n \n§GThis unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion§!" ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jaegers2:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Jaeger Infantry II" ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jaegers2_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Is it cold out, or is it just me? \n \n§GThis unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion§!" ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jaegers3:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Jaeger Infantry III" ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jaegers3_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jaegers4:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Jaeger Infantry IV" ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jaegers4_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jaegers5:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Jaeger Infantry V" ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jaegers5_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jaegers6:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Jaeger Infantry VI" ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jaegers6_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jungletroops:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Jungle Infantry I" ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jungletroops_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jungletroops2:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Jungle Infantry II" ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jungletroops2_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Jungle Specialists are trained to sustain the harsh conditions of Jungle Warfare and to cope with the frequent lack of supplies. \n \n§GThis unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion§!" ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jungletroops3:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Jungle Infantry III" ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jungletroops3_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jungletroops4:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Jungle Infantry IV" ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jungletroops4_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jungletroops5:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Jungle Infantry V" ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jungletroops5_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jungletroops6:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Jungle Infantry VI" ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jungletroops6_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> shocktroops:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Shock Troops I" ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> shocktroops_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Shock Troops are used to heavily assault the defensive lines of your enemy to achieve a breakthrough in specific places. These units have a higher breakthrough and hard attack compared to regular infantry. However, Shock Troops or Stoßtruppen also have a higher supply consumption and an increased recovery time." ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> shocktroops2:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Shock Troops II" ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> shocktroops2_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> shocktroops3:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Shock Troops III" ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> shocktroops3_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> shocktroops4:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Shock Troops IV" ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> shocktroops4_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> shocktroops5:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Shock Troops V" ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> shocktroops5_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> shocktroops6:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Shock Troops VI" ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> shocktroops6_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> desertinfantry_at:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Desert Infantry I" ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> desertinfantry_at_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> desertinfantry_at2:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Desert Infantry II" ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> desertinfantry_at2_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"The sandy mountains of the desert can be treacherous to your regular Infantry. To cope in this environment, we can train our Desert Infantry to gain the upper hand in the desert.\n \n§GThis unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion§!" ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> desertinfantry_at3:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Desert Infantry III" ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> desertinfantry_at3_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> desertinfantry_at4:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Desert Infantry IV" ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> desertinfantry_at4_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> desertinfantry_at5:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Desert Infantry V" ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> desertinfantry_at5_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> desertinfantry_at6:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Desert Infantry VI" ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> desertinfantry_at6_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tech_flamethrower:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Flamethrower I" ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tech_flamethrower_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Flamethrowers are useful in close combat and urban warfare and against fixed fortifications. These also add a substantial soft attack to our divisions." ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tech_flamethrower2:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Flamethrower II" ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tech_flamethrower2_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tech_flamethrower3:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Flamethrower III" ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tech_flamethrower3_desc:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tech_flamethrower4:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Flamethrower IV" ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tech_flamethrower4_desc:0</t>
   </si>
   <si>
     <t xml:space="preserve">###------&gt; Improved Equipment   &lt;&gt;&lt;&gt; &lt;&gt;&lt;&gt; &lt;&gt;&lt;&gt; &lt;&gt;&lt;&gt; &lt;&gt;&lt;&gt;</t>
@@ -3098,16 +3224,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3302,16 +3432,16 @@
   </sheetPr>
   <dimension ref="A1:D653"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D652" activeCellId="0" sqref="D1:D652"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A418" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B438" activeCellId="0" sqref="B438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="61.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="84.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="98.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="98.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="10.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7593,7 +7723,7 @@
       <c r="A281" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="B281" s="2" t="s">
+      <c r="B281" s="3" t="s">
         <v>458</v>
       </c>
       <c r="C281" s="1" t="str">
@@ -9961,26 +10091,32 @@
       <c r="A438" s="1" t="s">
         <v>710</v>
       </c>
+      <c r="B438" s="1" t="s">
+        <v>711</v>
+      </c>
       <c r="C438" s="1" t="str">
         <f aca="false">A438 &amp;" " &amp;"""" &amp;B438 &amp;""""</f>
-        <v> jaeger:0"Jaeger Infantry" ""</v>
+        <v> jaeger:0 ""Jaeger Infantry" """</v>
       </c>
       <c r="D438" s="1" t="str">
         <f aca="false">IF(ISBLANK(A438),"",C438)</f>
-        <v> jaeger:0"Jaeger Infantry" ""</v>
+        <v> jaeger:0 ""Jaeger Infantry" """</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>713</v>
       </c>
       <c r="C439" s="1" t="str">
         <f aca="false">A439 &amp;" " &amp;"""" &amp;B439 &amp;""""</f>
-        <v> jaeger_desc:0"Jaegers are forces that specialize in surviving the cold and the wilderness of the boreal forest. Usually, these troops are native to their territory and take longer to train.[~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]" ""</v>
+        <v> jaeger_desc:0 ""Jaegers are forces that specialize in surviving the cold and the wilderness of the boreal forest. Usually, these troops are native to their territory and take longer to train.\n \n§GThis unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion§!" """</v>
       </c>
       <c r="D439" s="1" t="str">
         <f aca="false">IF(ISBLANK(A439),"",C439)</f>
-        <v> jaeger_desc:0"Jaegers are forces that specialize in surviving the cold and the wilderness of the boreal forest. Usually, these troops are native to their territory and take longer to train.[~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]" ""</v>
+        <v> jaeger_desc:0 ""Jaegers are forces that specialize in surviving the cold and the wilderness of the boreal forest. Usually, these troops are native to their territory and take longer to train.\n \n§GThis unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion§!" """</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9995,28 +10131,34 @@
     </row>
     <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="1" t="s">
-        <v>712</v>
+        <v>714</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>715</v>
       </c>
       <c r="C441" s="1" t="str">
         <f aca="false">A441 &amp;" " &amp;"""" &amp;B441 &amp;""""</f>
-        <v> jungletroop:0"Jungle Infantry" ""</v>
+        <v> jungletroop:0 ""Jungle Infantry" """</v>
       </c>
       <c r="D441" s="1" t="str">
         <f aca="false">IF(ISBLANK(A441),"",C441)</f>
-        <v> jungletroop:0"Jungle Infantry" ""</v>
+        <v> jungletroop:0 ""Jungle Infantry" """</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="1" t="s">
-        <v>713</v>
+        <v>716</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>717</v>
       </c>
       <c r="C442" s="1" t="str">
         <f aca="false">A442 &amp;" " &amp;"""" &amp;B442 &amp;""""</f>
-        <v> jungletroop_desc:0"Jungle Specialists are trained to sustain the harsh conditions of Jungle Warfare and challenge the Enemy on their terms.[~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]" ""</v>
+        <v> jungletroop_desc:0 ""Jungle Specialists are trained to sustain the harsh conditions of Jungle Warfare and challenge the Enemy on their terms.\n \n§GThis unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion§!" """</v>
       </c>
       <c r="D442" s="1" t="str">
         <f aca="false">IF(ISBLANK(A442),"",C442)</f>
-        <v> jungletroop_desc:0"Jungle Specialists are trained to sustain the harsh conditions of Jungle Warfare and challenge the Enemy on their terms.[~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]" ""</v>
+        <v> jungletroop_desc:0 ""Jungle Specialists are trained to sustain the harsh conditions of Jungle Warfare and challenge the Enemy on their terms.\n \n§GThis unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion§!" """</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10031,28 +10173,34 @@
     </row>
     <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="1" t="s">
-        <v>714</v>
+        <v>718</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>719</v>
       </c>
       <c r="C444" s="1" t="str">
         <f aca="false">A444 &amp;" " &amp;"""" &amp;B444 &amp;""""</f>
-        <v> desertinfantry:0"Desert Infantry" ""</v>
+        <v> desertinfantry:0 ""Desert Infantry" """</v>
       </c>
       <c r="D444" s="1" t="str">
         <f aca="false">IF(ISBLANK(A444),"",C444)</f>
-        <v> desertinfantry:0"Desert Infantry" ""</v>
+        <v> desertinfantry:0 ""Desert Infantry" """</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="1" t="s">
-        <v>715</v>
+        <v>720</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>721</v>
       </c>
       <c r="C445" s="1" t="str">
         <f aca="false">A445 &amp;" " &amp;"""" &amp;B445 &amp;""""</f>
-        <v> desertinfantry_desc:0"Combat in the Desert ranges exposes troops to many perils but sometimes cannot be avoided. We can minimize these risks by providing our soldiers with specialized training for this environment.[~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]" ""</v>
+        <v> desertinfantry_desc:0 ""Combat in the Desert ranges exposes troops to many perils but sometimes cannot be avoided. We can minimize these risks by providing our soldiers with specialized training for this environment.\n \n§GThis unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion§!" """</v>
       </c>
       <c r="D445" s="1" t="str">
         <f aca="false">IF(ISBLANK(A445),"",C445)</f>
-        <v> desertinfantry_desc:0"Combat in the Desert ranges exposes troops to many perils but sometimes cannot be avoided. We can minimize these risks by providing our soldiers with specialized training for this environment.[~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]" ""</v>
+        <v> desertinfantry_desc:0 ""Combat in the Desert ranges exposes troops to many perils but sometimes cannot be avoided. We can minimize these risks by providing our soldiers with specialized training for this environment.\n \n§GThis unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion§!" """</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10067,28 +10215,34 @@
     </row>
     <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="1" t="s">
-        <v>716</v>
+        <v>722</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>723</v>
       </c>
       <c r="C447" s="1" t="str">
         <f aca="false">A447 &amp;" " &amp;"""" &amp;B447 &amp;""""</f>
-        <v> shocktroop:0"Shock Troops" ""</v>
+        <v> shocktroop:0 ""Shock Troops" """</v>
       </c>
       <c r="D447" s="1" t="str">
         <f aca="false">IF(ISBLANK(A447),"",C447)</f>
-        <v> shocktroop:0"Shock Troops" ""</v>
+        <v> shocktroop:0 ""Shock Troops" """</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="1" t="s">
-        <v>717</v>
+        <v>724</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>725</v>
       </c>
       <c r="C448" s="1" t="str">
         <f aca="false">A448 &amp;" " &amp;"""" &amp;B448 &amp;""""</f>
-        <v> shocktroop_desc:0"Shock Troops can smash into Enemy lines to achieve a breakthrough. This is almost essential to any form of Deep-Battle and can significantly contribute to throwing the defenders into disarray." ""</v>
+        <v> shocktroop_desc:0 ""Shock Troops can smash into Enemy lines to achieve a breakthrough. This is almost essential to any form of Deep-Battle and can significantly contribute to throwing the defenders into disarray." """</v>
       </c>
       <c r="D448" s="1" t="str">
         <f aca="false">IF(ISBLANK(A448),"",C448)</f>
-        <v> shocktroop_desc:0"Shock Troops can smash into Enemy lines to achieve a breakthrough. This is almost essential to any form of Deep-Battle and can significantly contribute to throwing the defenders into disarray." ""</v>
+        <v> shocktroop_desc:0 ""Shock Troops can smash into Enemy lines to achieve a breakthrough. This is almost essential to any form of Deep-Battle and can significantly contribute to throwing the defenders into disarray." """</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10103,158 +10257,194 @@
     </row>
     <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="1" t="s">
-        <v>718</v>
+        <v>726</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>727</v>
       </c>
       <c r="C450" s="1" t="str">
         <f aca="false">A450 &amp;" " &amp;"""" &amp;B450 &amp;""""</f>
-        <v> jaegers:0"Jaeger Infantry I" ""</v>
+        <v> jaegers:0 ""Jaeger Infantry I" """</v>
       </c>
       <c r="D450" s="1" t="str">
         <f aca="false">IF(ISBLANK(A450),"",C450)</f>
-        <v> jaegers:0"Jaeger Infantry I" ""</v>
+        <v> jaegers:0 ""Jaeger Infantry I" """</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="1" t="s">
-        <v>719</v>
+        <v>728</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>729</v>
       </c>
       <c r="C451" s="1" t="str">
         <f aca="false">A451 &amp;" " &amp;"""" &amp;B451 &amp;""""</f>
-        <v> jaegers_desc:0"Jaegers are forces that specialize in surviving the cold and the wilderness of the boreal forest. Usually, these troops are native to their territory and take longer to train. [~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]" ""</v>
+        <v> jaegers_desc:0 ""Jaegers are forces that specialize in surviving the cold and the wilderness of the boreal forest. Usually, these troops are native to their territory and take longer to train. \n \n§GThis unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion§!" """</v>
       </c>
       <c r="D451" s="1" t="str">
         <f aca="false">IF(ISBLANK(A451),"",C451)</f>
-        <v> jaegers_desc:0"Jaegers are forces that specialize in surviving the cold and the wilderness of the boreal forest. Usually, these troops are native to their territory and take longer to train. [~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]" ""</v>
+        <v> jaegers_desc:0 ""Jaegers are forces that specialize in surviving the cold and the wilderness of the boreal forest. Usually, these troops are native to their territory and take longer to train. \n \n§GThis unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion§!" """</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="1" t="s">
-        <v>720</v>
+        <v>730</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>731</v>
       </c>
       <c r="C452" s="1" t="str">
         <f aca="false">A452 &amp;" " &amp;"""" &amp;B452 &amp;""""</f>
-        <v> jaegers2:0"Jaeger Infantry II" ""</v>
+        <v> jaegers2:0 ""Jaeger Infantry II" """</v>
       </c>
       <c r="D452" s="1" t="str">
         <f aca="false">IF(ISBLANK(A452),"",C452)</f>
-        <v> jaegers2:0"Jaeger Infantry II" ""</v>
+        <v> jaegers2:0 ""Jaeger Infantry II" """</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="1" t="s">
-        <v>721</v>
+        <v>732</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>733</v>
       </c>
       <c r="C453" s="1" t="str">
         <f aca="false">A453 &amp;" " &amp;"""" &amp;B453 &amp;""""</f>
-        <v> jaegers2_desc:0"Is it cold out, or is it just me? [~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]" ""</v>
+        <v> jaegers2_desc:0 ""Is it cold out, or is it just me? \n \n§GThis unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion§!" """</v>
       </c>
       <c r="D453" s="1" t="str">
         <f aca="false">IF(ISBLANK(A453),"",C453)</f>
-        <v> jaegers2_desc:0"Is it cold out, or is it just me? [~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]" ""</v>
+        <v> jaegers2_desc:0 ""Is it cold out, or is it just me? \n \n§GThis unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion§!" """</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="1" t="s">
-        <v>722</v>
+        <v>734</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>735</v>
       </c>
       <c r="C454" s="1" t="str">
         <f aca="false">A454 &amp;" " &amp;"""" &amp;B454 &amp;""""</f>
-        <v> jaegers3:0"Jaeger Infantry III" ""</v>
+        <v> jaegers3:0 ""Jaeger Infantry III" """</v>
       </c>
       <c r="D454" s="1" t="str">
         <f aca="false">IF(ISBLANK(A454),"",C454)</f>
-        <v> jaegers3:0"Jaeger Infantry III" ""</v>
+        <v> jaegers3:0 ""Jaeger Infantry III" """</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="s">
-        <v>723</v>
+        <v>736</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>733</v>
       </c>
       <c r="C455" s="1" t="str">
         <f aca="false">A455 &amp;" " &amp;"""" &amp;B455 &amp;""""</f>
-        <v> jaegers3_desc:0"Is it cold out, or is it just me? [~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]" ""</v>
+        <v> jaegers3_desc:0 ""Is it cold out, or is it just me? \n \n§GThis unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion§!" """</v>
       </c>
       <c r="D455" s="1" t="str">
         <f aca="false">IF(ISBLANK(A455),"",C455)</f>
-        <v> jaegers3_desc:0"Is it cold out, or is it just me? [~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]" ""</v>
+        <v> jaegers3_desc:0 ""Is it cold out, or is it just me? \n \n§GThis unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion§!" """</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="1" t="s">
-        <v>724</v>
+        <v>737</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>738</v>
       </c>
       <c r="C456" s="1" t="str">
         <f aca="false">A456 &amp;" " &amp;"""" &amp;B456 &amp;""""</f>
-        <v> jaegers4:0"Jaeger Infantry IV" ""</v>
+        <v> jaegers4:0 ""Jaeger Infantry IV" """</v>
       </c>
       <c r="D456" s="1" t="str">
         <f aca="false">IF(ISBLANK(A456),"",C456)</f>
-        <v> jaegers4:0"Jaeger Infantry IV" ""</v>
+        <v> jaegers4:0 ""Jaeger Infantry IV" """</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="1" t="s">
-        <v>725</v>
+        <v>739</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>733</v>
       </c>
       <c r="C457" s="1" t="str">
         <f aca="false">A457 &amp;" " &amp;"""" &amp;B457 &amp;""""</f>
-        <v> jaegers4_desc:0"Is it cold out, or is it just me? [~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]" ""</v>
+        <v> jaegers4_desc:0 ""Is it cold out, or is it just me? \n \n§GThis unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion§!" """</v>
       </c>
       <c r="D457" s="1" t="str">
         <f aca="false">IF(ISBLANK(A457),"",C457)</f>
-        <v> jaegers4_desc:0"Is it cold out, or is it just me? [~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]" ""</v>
+        <v> jaegers4_desc:0 ""Is it cold out, or is it just me? \n \n§GThis unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion§!" """</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="1" t="s">
-        <v>726</v>
+        <v>740</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>741</v>
       </c>
       <c r="C458" s="1" t="str">
         <f aca="false">A458 &amp;" " &amp;"""" &amp;B458 &amp;""""</f>
-        <v> jaegers5:0"Jaeger Infantry V" ""</v>
+        <v> jaegers5:0 ""Jaeger Infantry V" """</v>
       </c>
       <c r="D458" s="1" t="str">
         <f aca="false">IF(ISBLANK(A458),"",C458)</f>
-        <v> jaegers5:0"Jaeger Infantry V" ""</v>
+        <v> jaegers5:0 ""Jaeger Infantry V" """</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="1" t="s">
-        <v>727</v>
+        <v>742</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>733</v>
       </c>
       <c r="C459" s="1" t="str">
         <f aca="false">A459 &amp;" " &amp;"""" &amp;B459 &amp;""""</f>
-        <v> jaegers5_desc:0"Is it cold out, or is it just me? [~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]" ""</v>
+        <v> jaegers5_desc:0 ""Is it cold out, or is it just me? \n \n§GThis unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion§!" """</v>
       </c>
       <c r="D459" s="1" t="str">
         <f aca="false">IF(ISBLANK(A459),"",C459)</f>
-        <v> jaegers5_desc:0"Is it cold out, or is it just me? [~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]" ""</v>
+        <v> jaegers5_desc:0 ""Is it cold out, or is it just me? \n \n§GThis unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion§!" """</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="1" t="s">
-        <v>728</v>
+        <v>743</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="C460" s="1" t="str">
         <f aca="false">A460 &amp;" " &amp;"""" &amp;B460 &amp;""""</f>
-        <v> jaegers6:0"Jaeger Infantry VI" ""</v>
+        <v> jaegers6:0 ""Jaeger Infantry VI" """</v>
       </c>
       <c r="D460" s="1" t="str">
         <f aca="false">IF(ISBLANK(A460),"",C460)</f>
-        <v> jaegers6:0"Jaeger Infantry VI" ""</v>
+        <v> jaegers6:0 ""Jaeger Infantry VI" """</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="1" t="s">
-        <v>729</v>
+        <v>745</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>733</v>
       </c>
       <c r="C461" s="1" t="str">
         <f aca="false">A461 &amp;" " &amp;"""" &amp;B461 &amp;""""</f>
-        <v> jaegers6_desc:0"Is it cold out, or is it just me? [~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]" ""</v>
+        <v> jaegers6_desc:0 ""Is it cold out, or is it just me? \n \n§GThis unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion§!" """</v>
       </c>
       <c r="D461" s="1" t="str">
         <f aca="false">IF(ISBLANK(A461),"",C461)</f>
-        <v> jaegers6_desc:0"Is it cold out, or is it just me? [~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]" ""</v>
+        <v> jaegers6_desc:0 ""Is it cold out, or is it just me? \n \n§GThis unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion§!" """</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10269,158 +10459,194 @@
     </row>
     <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="1" t="s">
-        <v>730</v>
+        <v>746</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>747</v>
       </c>
       <c r="C463" s="1" t="str">
         <f aca="false">A463 &amp;" " &amp;"""" &amp;B463 &amp;""""</f>
-        <v> jungletroops:0"Jungle Infantry I" ""</v>
+        <v> jungletroops:0 ""Jungle Infantry I" """</v>
       </c>
       <c r="D463" s="1" t="str">
         <f aca="false">IF(ISBLANK(A463),"",C463)</f>
-        <v> jungletroops:0"Jungle Infantry I" ""</v>
+        <v> jungletroops:0 ""Jungle Infantry I" """</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="1" t="s">
-        <v>731</v>
+        <v>748</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>717</v>
       </c>
       <c r="C464" s="1" t="str">
         <f aca="false">A464 &amp;" " &amp;"""" &amp;B464 &amp;""""</f>
-        <v> jungletroops_desc:0"Jungle Specialists are trained to sustain the harsh conditions of Jungle Warfare and challenge the Enemy on their terms.[~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]" ""</v>
+        <v> jungletroops_desc:0 ""Jungle Specialists are trained to sustain the harsh conditions of Jungle Warfare and challenge the Enemy on their terms.\n \n§GThis unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion§!" """</v>
       </c>
       <c r="D464" s="1" t="str">
         <f aca="false">IF(ISBLANK(A464),"",C464)</f>
-        <v> jungletroops_desc:0"Jungle Specialists are trained to sustain the harsh conditions of Jungle Warfare and challenge the Enemy on their terms.[~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]" ""</v>
+        <v> jungletroops_desc:0 ""Jungle Specialists are trained to sustain the harsh conditions of Jungle Warfare and challenge the Enemy on their terms.\n \n§GThis unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion§!" """</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="1" t="s">
-        <v>732</v>
+        <v>749</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>750</v>
       </c>
       <c r="C465" s="1" t="str">
         <f aca="false">A465 &amp;" " &amp;"""" &amp;B465 &amp;""""</f>
-        <v> jungletroops2:0"Jungle Infantry II" ""</v>
+        <v> jungletroops2:0 ""Jungle Infantry II" """</v>
       </c>
       <c r="D465" s="1" t="str">
         <f aca="false">IF(ISBLANK(A465),"",C465)</f>
-        <v> jungletroops2:0"Jungle Infantry II" ""</v>
+        <v> jungletroops2:0 ""Jungle Infantry II" """</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="1" t="s">
-        <v>733</v>
+        <v>751</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>752</v>
       </c>
       <c r="C466" s="1" t="str">
         <f aca="false">A466 &amp;" " &amp;"""" &amp;B466 &amp;""""</f>
-        <v> jungletroops2_desc:0"Jungle Specialists are trained to sustain the harsh conditions of Jungle Warfare and to cope with the frequent lack of supplies. [~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]" ""</v>
+        <v> jungletroops2_desc:0 ""Jungle Specialists are trained to sustain the harsh conditions of Jungle Warfare and to cope with the frequent lack of supplies. \n \n§GThis unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion§!" """</v>
       </c>
       <c r="D466" s="1" t="str">
         <f aca="false">IF(ISBLANK(A466),"",C466)</f>
-        <v> jungletroops2_desc:0"Jungle Specialists are trained to sustain the harsh conditions of Jungle Warfare and to cope with the frequent lack of supplies. [~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]" ""</v>
+        <v> jungletroops2_desc:0 ""Jungle Specialists are trained to sustain the harsh conditions of Jungle Warfare and to cope with the frequent lack of supplies. \n \n§GThis unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion§!" """</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="1" t="s">
-        <v>734</v>
+        <v>753</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>754</v>
       </c>
       <c r="C467" s="1" t="str">
         <f aca="false">A467 &amp;" " &amp;"""" &amp;B467 &amp;""""</f>
-        <v> jungletroops3:0"Jungle Infantry III" ""</v>
+        <v> jungletroops3:0 ""Jungle Infantry III" """</v>
       </c>
       <c r="D467" s="1" t="str">
         <f aca="false">IF(ISBLANK(A467),"",C467)</f>
-        <v> jungletroops3:0"Jungle Infantry III" ""</v>
+        <v> jungletroops3:0 ""Jungle Infantry III" """</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="1" t="s">
-        <v>735</v>
+        <v>755</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>752</v>
       </c>
       <c r="C468" s="1" t="str">
         <f aca="false">A468 &amp;" " &amp;"""" &amp;B468 &amp;""""</f>
-        <v> jungletroops3_desc:0"Jungle Specialists are trained to sustain the harsh conditions of Jungle Warfare and to cope with the frequent lack of supplies. [~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]" ""</v>
+        <v> jungletroops3_desc:0 ""Jungle Specialists are trained to sustain the harsh conditions of Jungle Warfare and to cope with the frequent lack of supplies. \n \n§GThis unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion§!" """</v>
       </c>
       <c r="D468" s="1" t="str">
         <f aca="false">IF(ISBLANK(A468),"",C468)</f>
-        <v> jungletroops3_desc:0"Jungle Specialists are trained to sustain the harsh conditions of Jungle Warfare and to cope with the frequent lack of supplies. [~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]" ""</v>
+        <v> jungletroops3_desc:0 ""Jungle Specialists are trained to sustain the harsh conditions of Jungle Warfare and to cope with the frequent lack of supplies. \n \n§GThis unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion§!" """</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="1" t="s">
-        <v>736</v>
+        <v>756</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>757</v>
       </c>
       <c r="C469" s="1" t="str">
         <f aca="false">A469 &amp;" " &amp;"""" &amp;B469 &amp;""""</f>
-        <v> jungletroops4:0"Jungle Infantry IV" ""</v>
+        <v> jungletroops4:0 ""Jungle Infantry IV" """</v>
       </c>
       <c r="D469" s="1" t="str">
         <f aca="false">IF(ISBLANK(A469),"",C469)</f>
-        <v> jungletroops4:0"Jungle Infantry IV" ""</v>
+        <v> jungletroops4:0 ""Jungle Infantry IV" """</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="1" t="s">
-        <v>737</v>
+        <v>758</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>752</v>
       </c>
       <c r="C470" s="1" t="str">
         <f aca="false">A470 &amp;" " &amp;"""" &amp;B470 &amp;""""</f>
-        <v> jungletroops4_desc:0"Jungle Specialists are trained to sustain the harsh conditions of Jungle Warfare and to cope with the frequent lack of supplies. [~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]" ""</v>
+        <v> jungletroops4_desc:0 ""Jungle Specialists are trained to sustain the harsh conditions of Jungle Warfare and to cope with the frequent lack of supplies. \n \n§GThis unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion§!" """</v>
       </c>
       <c r="D470" s="1" t="str">
         <f aca="false">IF(ISBLANK(A470),"",C470)</f>
-        <v> jungletroops4_desc:0"Jungle Specialists are trained to sustain the harsh conditions of Jungle Warfare and to cope with the frequent lack of supplies. [~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]" ""</v>
+        <v> jungletroops4_desc:0 ""Jungle Specialists are trained to sustain the harsh conditions of Jungle Warfare and to cope with the frequent lack of supplies. \n \n§GThis unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion§!" """</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="1" t="s">
-        <v>738</v>
+        <v>759</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>760</v>
       </c>
       <c r="C471" s="1" t="str">
         <f aca="false">A471 &amp;" " &amp;"""" &amp;B471 &amp;""""</f>
-        <v> jungletroops5:0"Jungle Infantry V" ""</v>
+        <v> jungletroops5:0 ""Jungle Infantry V" """</v>
       </c>
       <c r="D471" s="1" t="str">
         <f aca="false">IF(ISBLANK(A471),"",C471)</f>
-        <v> jungletroops5:0"Jungle Infantry V" ""</v>
+        <v> jungletroops5:0 ""Jungle Infantry V" """</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="1" t="s">
-        <v>739</v>
+        <v>761</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>752</v>
       </c>
       <c r="C472" s="1" t="str">
         <f aca="false">A472 &amp;" " &amp;"""" &amp;B472 &amp;""""</f>
-        <v> jungletroops5_desc:0"Jungle Specialists are trained to sustain the harsh conditions of Jungle Warfare and to cope with the frequent lack of supplies. [~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]" ""</v>
+        <v> jungletroops5_desc:0 ""Jungle Specialists are trained to sustain the harsh conditions of Jungle Warfare and to cope with the frequent lack of supplies. \n \n§GThis unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion§!" """</v>
       </c>
       <c r="D472" s="1" t="str">
         <f aca="false">IF(ISBLANK(A472),"",C472)</f>
-        <v> jungletroops5_desc:0"Jungle Specialists are trained to sustain the harsh conditions of Jungle Warfare and to cope with the frequent lack of supplies. [~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]" ""</v>
+        <v> jungletroops5_desc:0 ""Jungle Specialists are trained to sustain the harsh conditions of Jungle Warfare and to cope with the frequent lack of supplies. \n \n§GThis unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion§!" """</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="1" t="s">
-        <v>740</v>
+        <v>762</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>763</v>
       </c>
       <c r="C473" s="1" t="str">
         <f aca="false">A473 &amp;" " &amp;"""" &amp;B473 &amp;""""</f>
-        <v> jungletroops6:0"Jungle Infantry VI" ""</v>
+        <v> jungletroops6:0 ""Jungle Infantry VI" """</v>
       </c>
       <c r="D473" s="1" t="str">
         <f aca="false">IF(ISBLANK(A473),"",C473)</f>
-        <v> jungletroops6:0"Jungle Infantry VI" ""</v>
+        <v> jungletroops6:0 ""Jungle Infantry VI" """</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="1" t="s">
-        <v>741</v>
+        <v>764</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>752</v>
       </c>
       <c r="C474" s="1" t="str">
         <f aca="false">A474 &amp;" " &amp;"""" &amp;B474 &amp;""""</f>
-        <v> jungletroops6_desc:0"Jungle Specialists are trained to sustain the harsh conditions of Jungle Warfare and to cope with the frequent lack of supplies. [~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]" ""</v>
+        <v> jungletroops6_desc:0 ""Jungle Specialists are trained to sustain the harsh conditions of Jungle Warfare and to cope with the frequent lack of supplies. \n \n§GThis unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion§!" """</v>
       </c>
       <c r="D474" s="1" t="str">
         <f aca="false">IF(ISBLANK(A474),"",C474)</f>
-        <v> jungletroops6_desc:0"Jungle Specialists are trained to sustain the harsh conditions of Jungle Warfare and to cope with the frequent lack of supplies. [~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]" ""</v>
+        <v> jungletroops6_desc:0 ""Jungle Specialists are trained to sustain the harsh conditions of Jungle Warfare and to cope with the frequent lack of supplies. \n \n§GThis unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion§!" """</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10435,158 +10661,194 @@
     </row>
     <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="1" t="s">
-        <v>742</v>
+        <v>765</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>766</v>
       </c>
       <c r="C476" s="1" t="str">
         <f aca="false">A476 &amp;" " &amp;"""" &amp;B476 &amp;""""</f>
-        <v> shocktroops:0"Shock Troops I" ""</v>
+        <v> shocktroops:0 ""Shock Troops I" """</v>
       </c>
       <c r="D476" s="1" t="str">
         <f aca="false">IF(ISBLANK(A476),"",C476)</f>
-        <v> shocktroops:0"Shock Troops I" ""</v>
+        <v> shocktroops:0 ""Shock Troops I" """</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="1" t="s">
-        <v>743</v>
+        <v>767</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>768</v>
       </c>
       <c r="C477" s="1" t="str">
         <f aca="false">A477 &amp;" " &amp;"""" &amp;B477 &amp;""""</f>
-        <v> shocktroops_desc:0"Shock Troops are used to heavily assault the defensive lines of your enemy to achieve a breakthrough in specific places. These units have a higher breakthrough and hard attack compared to regular infantry. However, Shock Troops or Stoßtruppen also have a higher supply consumption and an increased recovery time." ""</v>
+        <v> shocktroops_desc:0 ""Shock Troops are used to heavily assault the defensive lines of your enemy to achieve a breakthrough in specific places. These units have a higher breakthrough and hard attack compared to regular infantry. However, Shock Troops or Stoßtruppen also have a higher supply consumption and an increased recovery time." """</v>
       </c>
       <c r="D477" s="1" t="str">
         <f aca="false">IF(ISBLANK(A477),"",C477)</f>
-        <v> shocktroops_desc:0"Shock Troops are used to heavily assault the defensive lines of your enemy to achieve a breakthrough in specific places. These units have a higher breakthrough and hard attack compared to regular infantry. However, Shock Troops or Stoßtruppen also have a higher supply consumption and an increased recovery time." ""</v>
+        <v> shocktroops_desc:0 ""Shock Troops are used to heavily assault the defensive lines of your enemy to achieve a breakthrough in specific places. These units have a higher breakthrough and hard attack compared to regular infantry. However, Shock Troops or Stoßtruppen also have a higher supply consumption and an increased recovery time." """</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="1" t="s">
-        <v>744</v>
+        <v>769</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>770</v>
       </c>
       <c r="C478" s="1" t="str">
         <f aca="false">A478 &amp;" " &amp;"""" &amp;B478 &amp;""""</f>
-        <v> shocktroops2:0"Shock Troops II" ""</v>
+        <v> shocktroops2:0 ""Shock Troops II" """</v>
       </c>
       <c r="D478" s="1" t="str">
         <f aca="false">IF(ISBLANK(A478),"",C478)</f>
-        <v> shocktroops2:0"Shock Troops II" ""</v>
+        <v> shocktroops2:0 ""Shock Troops II" """</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="1" t="s">
-        <v>745</v>
+        <v>771</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>768</v>
       </c>
       <c r="C479" s="1" t="str">
         <f aca="false">A479 &amp;" " &amp;"""" &amp;B479 &amp;""""</f>
-        <v> shocktroops2_desc:0"Shock Troops are used to heavily assault the defensive lines of your enemy to achieve a breakthrough in specific places. These units have a higher breakthrough and hard attack compared to regular infantry. However, Shock Troops or Stoßtruppen also have a higher supply consumption and an increased recovery time." ""</v>
+        <v> shocktroops2_desc:0 ""Shock Troops are used to heavily assault the defensive lines of your enemy to achieve a breakthrough in specific places. These units have a higher breakthrough and hard attack compared to regular infantry. However, Shock Troops or Stoßtruppen also have a higher supply consumption and an increased recovery time." """</v>
       </c>
       <c r="D479" s="1" t="str">
         <f aca="false">IF(ISBLANK(A479),"",C479)</f>
-        <v> shocktroops2_desc:0"Shock Troops are used to heavily assault the defensive lines of your enemy to achieve a breakthrough in specific places. These units have a higher breakthrough and hard attack compared to regular infantry. However, Shock Troops or Stoßtruppen also have a higher supply consumption and an increased recovery time." ""</v>
+        <v> shocktroops2_desc:0 ""Shock Troops are used to heavily assault the defensive lines of your enemy to achieve a breakthrough in specific places. These units have a higher breakthrough and hard attack compared to regular infantry. However, Shock Troops or Stoßtruppen also have a higher supply consumption and an increased recovery time." """</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="1" t="s">
-        <v>746</v>
+        <v>772</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>773</v>
       </c>
       <c r="C480" s="1" t="str">
         <f aca="false">A480 &amp;" " &amp;"""" &amp;B480 &amp;""""</f>
-        <v> shocktroops3:0"Shock Troops III" ""</v>
+        <v> shocktroops3:0 ""Shock Troops III" """</v>
       </c>
       <c r="D480" s="1" t="str">
         <f aca="false">IF(ISBLANK(A480),"",C480)</f>
-        <v> shocktroops3:0"Shock Troops III" ""</v>
+        <v> shocktroops3:0 ""Shock Troops III" """</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="1" t="s">
-        <v>747</v>
+        <v>774</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>768</v>
       </c>
       <c r="C481" s="1" t="str">
         <f aca="false">A481 &amp;" " &amp;"""" &amp;B481 &amp;""""</f>
-        <v> shocktroops3_desc:0"Shock Troops are used to heavily assault the defensive lines of your enemy to achieve a breakthrough in specific places. These units have a higher breakthrough and hard attack compared to regular infantry. However, Shock Troops or Stoßtruppen also have a higher supply consumption and an increased recovery time." ""</v>
+        <v> shocktroops3_desc:0 ""Shock Troops are used to heavily assault the defensive lines of your enemy to achieve a breakthrough in specific places. These units have a higher breakthrough and hard attack compared to regular infantry. However, Shock Troops or Stoßtruppen also have a higher supply consumption and an increased recovery time." """</v>
       </c>
       <c r="D481" s="1" t="str">
         <f aca="false">IF(ISBLANK(A481),"",C481)</f>
-        <v> shocktroops3_desc:0"Shock Troops are used to heavily assault the defensive lines of your enemy to achieve a breakthrough in specific places. These units have a higher breakthrough and hard attack compared to regular infantry. However, Shock Troops or Stoßtruppen also have a higher supply consumption and an increased recovery time." ""</v>
+        <v> shocktroops3_desc:0 ""Shock Troops are used to heavily assault the defensive lines of your enemy to achieve a breakthrough in specific places. These units have a higher breakthrough and hard attack compared to regular infantry. However, Shock Troops or Stoßtruppen also have a higher supply consumption and an increased recovery time." """</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="1" t="s">
-        <v>748</v>
+        <v>775</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>776</v>
       </c>
       <c r="C482" s="1" t="str">
         <f aca="false">A482 &amp;" " &amp;"""" &amp;B482 &amp;""""</f>
-        <v> shocktroops4:0"Shock Troops IV" ""</v>
+        <v> shocktroops4:0 ""Shock Troops IV" """</v>
       </c>
       <c r="D482" s="1" t="str">
         <f aca="false">IF(ISBLANK(A482),"",C482)</f>
-        <v> shocktroops4:0"Shock Troops IV" ""</v>
+        <v> shocktroops4:0 ""Shock Troops IV" """</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="1" t="s">
-        <v>749</v>
+        <v>777</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>768</v>
       </c>
       <c r="C483" s="1" t="str">
         <f aca="false">A483 &amp;" " &amp;"""" &amp;B483 &amp;""""</f>
-        <v> shocktroops4_desc:0"Shock Troops are used to heavily assault the defensive lines of your enemy to achieve a breakthrough in specific places. These units have a higher breakthrough and hard attack compared to regular infantry. However, Shock Troops or Stoßtruppen also have a higher supply consumption and an increased recovery time." ""</v>
+        <v> shocktroops4_desc:0 ""Shock Troops are used to heavily assault the defensive lines of your enemy to achieve a breakthrough in specific places. These units have a higher breakthrough and hard attack compared to regular infantry. However, Shock Troops or Stoßtruppen also have a higher supply consumption and an increased recovery time." """</v>
       </c>
       <c r="D483" s="1" t="str">
         <f aca="false">IF(ISBLANK(A483),"",C483)</f>
-        <v> shocktroops4_desc:0"Shock Troops are used to heavily assault the defensive lines of your enemy to achieve a breakthrough in specific places. These units have a higher breakthrough and hard attack compared to regular infantry. However, Shock Troops or Stoßtruppen also have a higher supply consumption and an increased recovery time." ""</v>
+        <v> shocktroops4_desc:0 ""Shock Troops are used to heavily assault the defensive lines of your enemy to achieve a breakthrough in specific places. These units have a higher breakthrough and hard attack compared to regular infantry. However, Shock Troops or Stoßtruppen also have a higher supply consumption and an increased recovery time." """</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="1" t="s">
-        <v>750</v>
+        <v>778</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>779</v>
       </c>
       <c r="C484" s="1" t="str">
         <f aca="false">A484 &amp;" " &amp;"""" &amp;B484 &amp;""""</f>
-        <v> shocktroops5:0"Shock Troops V" ""</v>
+        <v> shocktroops5:0 ""Shock Troops V" """</v>
       </c>
       <c r="D484" s="1" t="str">
         <f aca="false">IF(ISBLANK(A484),"",C484)</f>
-        <v> shocktroops5:0"Shock Troops V" ""</v>
+        <v> shocktroops5:0 ""Shock Troops V" """</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="1" t="s">
-        <v>751</v>
+        <v>780</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>768</v>
       </c>
       <c r="C485" s="1" t="str">
         <f aca="false">A485 &amp;" " &amp;"""" &amp;B485 &amp;""""</f>
-        <v> shocktroops5_desc:0"Shock Troops are used to heavily assault the defensive lines of your enemy to achieve a breakthrough in specific places. These units have a higher breakthrough and hard attack compared to regular infantry. However, Shock Troops or Stoßtruppen also have a higher supply consumption and an increased recovery time." ""</v>
+        <v> shocktroops5_desc:0 ""Shock Troops are used to heavily assault the defensive lines of your enemy to achieve a breakthrough in specific places. These units have a higher breakthrough and hard attack compared to regular infantry. However, Shock Troops or Stoßtruppen also have a higher supply consumption and an increased recovery time." """</v>
       </c>
       <c r="D485" s="1" t="str">
         <f aca="false">IF(ISBLANK(A485),"",C485)</f>
-        <v> shocktroops5_desc:0"Shock Troops are used to heavily assault the defensive lines of your enemy to achieve a breakthrough in specific places. These units have a higher breakthrough and hard attack compared to regular infantry. However, Shock Troops or Stoßtruppen also have a higher supply consumption and an increased recovery time." ""</v>
+        <v> shocktroops5_desc:0 ""Shock Troops are used to heavily assault the defensive lines of your enemy to achieve a breakthrough in specific places. These units have a higher breakthrough and hard attack compared to regular infantry. However, Shock Troops or Stoßtruppen also have a higher supply consumption and an increased recovery time." """</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="1" t="s">
-        <v>752</v>
+        <v>781</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>782</v>
       </c>
       <c r="C486" s="1" t="str">
         <f aca="false">A486 &amp;" " &amp;"""" &amp;B486 &amp;""""</f>
-        <v> shocktroops6:0"Shock Troops VI" ""</v>
+        <v> shocktroops6:0 ""Shock Troops VI" """</v>
       </c>
       <c r="D486" s="1" t="str">
         <f aca="false">IF(ISBLANK(A486),"",C486)</f>
-        <v> shocktroops6:0"Shock Troops VI" ""</v>
+        <v> shocktroops6:0 ""Shock Troops VI" """</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="1" t="s">
-        <v>753</v>
+        <v>783</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>768</v>
       </c>
       <c r="C487" s="1" t="str">
         <f aca="false">A487 &amp;" " &amp;"""" &amp;B487 &amp;""""</f>
-        <v> shocktroops6_desc:0"Shock Troops are used to heavily assault the defensive lines of your enemy to achieve a breakthrough in specific places. These units have a higher breakthrough and hard attack compared to regular infantry. However, Shock Troops or Stoßtruppen also have a higher supply consumption and an increased recovery time." ""</v>
+        <v> shocktroops6_desc:0 ""Shock Troops are used to heavily assault the defensive lines of your enemy to achieve a breakthrough in specific places. These units have a higher breakthrough and hard attack compared to regular infantry. However, Shock Troops or Stoßtruppen also have a higher supply consumption and an increased recovery time." """</v>
       </c>
       <c r="D487" s="1" t="str">
         <f aca="false">IF(ISBLANK(A487),"",C487)</f>
-        <v> shocktroops6_desc:0"Shock Troops are used to heavily assault the defensive lines of your enemy to achieve a breakthrough in specific places. These units have a higher breakthrough and hard attack compared to regular infantry. However, Shock Troops or Stoßtruppen also have a higher supply consumption and an increased recovery time." ""</v>
+        <v> shocktroops6_desc:0 ""Shock Troops are used to heavily assault the defensive lines of your enemy to achieve a breakthrough in specific places. These units have a higher breakthrough and hard attack compared to regular infantry. However, Shock Troops or Stoßtruppen also have a higher supply consumption and an increased recovery time." """</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10601,158 +10863,194 @@
     </row>
     <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="1" t="s">
-        <v>754</v>
+        <v>784</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>785</v>
       </c>
       <c r="C489" s="1" t="str">
         <f aca="false">A489 &amp;" " &amp;"""" &amp;B489 &amp;""""</f>
-        <v> desertinfantry_at:0"Desert Infantry I" ""</v>
+        <v> desertinfantry_at:0 ""Desert Infantry I" """</v>
       </c>
       <c r="D489" s="1" t="str">
         <f aca="false">IF(ISBLANK(A489),"",C489)</f>
-        <v> desertinfantry_at:0"Desert Infantry I" ""</v>
+        <v> desertinfantry_at:0 ""Desert Infantry I" """</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="1" t="s">
-        <v>755</v>
+        <v>786</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>721</v>
       </c>
       <c r="C490" s="1" t="str">
         <f aca="false">A490 &amp;" " &amp;"""" &amp;B490 &amp;""""</f>
-        <v> desertinfantry_at_desc:0"Combat in the Desert ranges exposes troops to many perils but sometimes cannot be avoided. We can minimize these risks by providing our soldiers with specialized training for this environment.[~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]" ""</v>
+        <v> desertinfantry_at_desc:0 ""Combat in the Desert ranges exposes troops to many perils but sometimes cannot be avoided. We can minimize these risks by providing our soldiers with specialized training for this environment.\n \n§GThis unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion§!" """</v>
       </c>
       <c r="D490" s="1" t="str">
         <f aca="false">IF(ISBLANK(A490),"",C490)</f>
-        <v> desertinfantry_at_desc:0"Combat in the Desert ranges exposes troops to many perils but sometimes cannot be avoided. We can minimize these risks by providing our soldiers with specialized training for this environment.[~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]" ""</v>
+        <v> desertinfantry_at_desc:0 ""Combat in the Desert ranges exposes troops to many perils but sometimes cannot be avoided. We can minimize these risks by providing our soldiers with specialized training for this environment.\n \n§GThis unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion§!" """</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="1" t="s">
-        <v>756</v>
+        <v>787</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>788</v>
       </c>
       <c r="C491" s="1" t="str">
         <f aca="false">A491 &amp;" " &amp;"""" &amp;B491 &amp;""""</f>
-        <v> desertinfantry_at2:0"Desert Infantry II" ""</v>
+        <v> desertinfantry_at2:0 ""Desert Infantry II" """</v>
       </c>
       <c r="D491" s="1" t="str">
         <f aca="false">IF(ISBLANK(A491),"",C491)</f>
-        <v> desertinfantry_at2:0"Desert Infantry II" ""</v>
+        <v> desertinfantry_at2:0 ""Desert Infantry II" """</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="1" t="s">
-        <v>757</v>
+        <v>789</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>790</v>
       </c>
       <c r="C492" s="1" t="str">
         <f aca="false">A492 &amp;" " &amp;"""" &amp;B492 &amp;""""</f>
-        <v> desertinfantry_at2_desc:0"The sandy mountains of the desert can be treacherous to your regular Infantry. To cope in this environment, we can train our Desert Infantry to gain the upper hand in the desert.[~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]" ""</v>
+        <v> desertinfantry_at2_desc:0 ""The sandy mountains of the desert can be treacherous to your regular Infantry. To cope in this environment, we can train our Desert Infantry to gain the upper hand in the desert.\n \n§GThis unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion§!" """</v>
       </c>
       <c r="D492" s="1" t="str">
         <f aca="false">IF(ISBLANK(A492),"",C492)</f>
-        <v> desertinfantry_at2_desc:0"The sandy mountains of the desert can be treacherous to your regular Infantry. To cope in this environment, we can train our Desert Infantry to gain the upper hand in the desert.[~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]" ""</v>
+        <v> desertinfantry_at2_desc:0 ""The sandy mountains of the desert can be treacherous to your regular Infantry. To cope in this environment, we can train our Desert Infantry to gain the upper hand in the desert.\n \n§GThis unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion§!" """</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="1" t="s">
-        <v>758</v>
+        <v>791</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>792</v>
       </c>
       <c r="C493" s="1" t="str">
         <f aca="false">A493 &amp;" " &amp;"""" &amp;B493 &amp;""""</f>
-        <v> desertinfantry_at3:0"Desert Infantry III" ""</v>
+        <v> desertinfantry_at3:0 ""Desert Infantry III" """</v>
       </c>
       <c r="D493" s="1" t="str">
         <f aca="false">IF(ISBLANK(A493),"",C493)</f>
-        <v> desertinfantry_at3:0"Desert Infantry III" ""</v>
+        <v> desertinfantry_at3:0 ""Desert Infantry III" """</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="1" t="s">
-        <v>759</v>
+        <v>793</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>790</v>
       </c>
       <c r="C494" s="1" t="str">
         <f aca="false">A494 &amp;" " &amp;"""" &amp;B494 &amp;""""</f>
-        <v> desertinfantry_at3_desc:0"The sandy mountains of the desert can be treacherous to your regular Infantry. To cope in this environment, we can train our Desert Infantry to gain the upper hand in the desert.[~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]" ""</v>
+        <v> desertinfantry_at3_desc:0 ""The sandy mountains of the desert can be treacherous to your regular Infantry. To cope in this environment, we can train our Desert Infantry to gain the upper hand in the desert.\n \n§GThis unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion§!" """</v>
       </c>
       <c r="D494" s="1" t="str">
         <f aca="false">IF(ISBLANK(A494),"",C494)</f>
-        <v> desertinfantry_at3_desc:0"The sandy mountains of the desert can be treacherous to your regular Infantry. To cope in this environment, we can train our Desert Infantry to gain the upper hand in the desert.[~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]" ""</v>
+        <v> desertinfantry_at3_desc:0 ""The sandy mountains of the desert can be treacherous to your regular Infantry. To cope in this environment, we can train our Desert Infantry to gain the upper hand in the desert.\n \n§GThis unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion§!" """</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="1" t="s">
-        <v>760</v>
+        <v>794</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>795</v>
       </c>
       <c r="C495" s="1" t="str">
         <f aca="false">A495 &amp;" " &amp;"""" &amp;B495 &amp;""""</f>
-        <v> desertinfantry_at4:0"Desert Infantry IV" ""</v>
+        <v> desertinfantry_at4:0 ""Desert Infantry IV" """</v>
       </c>
       <c r="D495" s="1" t="str">
         <f aca="false">IF(ISBLANK(A495),"",C495)</f>
-        <v> desertinfantry_at4:0"Desert Infantry IV" ""</v>
+        <v> desertinfantry_at4:0 ""Desert Infantry IV" """</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="1" t="s">
-        <v>761</v>
+        <v>796</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>790</v>
       </c>
       <c r="C496" s="1" t="str">
         <f aca="false">A496 &amp;" " &amp;"""" &amp;B496 &amp;""""</f>
-        <v> desertinfantry_at4_desc:0"The sandy mountains of the desert can be treacherous to your regular Infantry. To cope in this environment, we can train our Desert Infantry to gain the upper hand in the desert.[~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]" ""</v>
+        <v> desertinfantry_at4_desc:0 ""The sandy mountains of the desert can be treacherous to your regular Infantry. To cope in this environment, we can train our Desert Infantry to gain the upper hand in the desert.\n \n§GThis unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion§!" """</v>
       </c>
       <c r="D496" s="1" t="str">
         <f aca="false">IF(ISBLANK(A496),"",C496)</f>
-        <v> desertinfantry_at4_desc:0"The sandy mountains of the desert can be treacherous to your regular Infantry. To cope in this environment, we can train our Desert Infantry to gain the upper hand in the desert.[~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]" ""</v>
+        <v> desertinfantry_at4_desc:0 ""The sandy mountains of the desert can be treacherous to your regular Infantry. To cope in this environment, we can train our Desert Infantry to gain the upper hand in the desert.\n \n§GThis unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion§!" """</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="1" t="s">
-        <v>762</v>
+        <v>797</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>798</v>
       </c>
       <c r="C497" s="1" t="str">
         <f aca="false">A497 &amp;" " &amp;"""" &amp;B497 &amp;""""</f>
-        <v> desertinfantry_at5:0"Desert Infantry V" ""</v>
+        <v> desertinfantry_at5:0 ""Desert Infantry V" """</v>
       </c>
       <c r="D497" s="1" t="str">
         <f aca="false">IF(ISBLANK(A497),"",C497)</f>
-        <v> desertinfantry_at5:0"Desert Infantry V" ""</v>
+        <v> desertinfantry_at5:0 ""Desert Infantry V" """</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="1" t="s">
-        <v>763</v>
+        <v>799</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>790</v>
       </c>
       <c r="C498" s="1" t="str">
         <f aca="false">A498 &amp;" " &amp;"""" &amp;B498 &amp;""""</f>
-        <v> desertinfantry_at5_desc:0"The sandy mountains of the desert can be treacherous to your regular Infantry. To cope in this environment, we can train our Desert Infantry to gain the upper hand in the desert.[~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]" ""</v>
+        <v> desertinfantry_at5_desc:0 ""The sandy mountains of the desert can be treacherous to your regular Infantry. To cope in this environment, we can train our Desert Infantry to gain the upper hand in the desert.\n \n§GThis unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion§!" """</v>
       </c>
       <c r="D498" s="1" t="str">
         <f aca="false">IF(ISBLANK(A498),"",C498)</f>
-        <v> desertinfantry_at5_desc:0"The sandy mountains of the desert can be treacherous to your regular Infantry. To cope in this environment, we can train our Desert Infantry to gain the upper hand in the desert.[~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]" ""</v>
+        <v> desertinfantry_at5_desc:0 ""The sandy mountains of the desert can be treacherous to your regular Infantry. To cope in this environment, we can train our Desert Infantry to gain the upper hand in the desert.\n \n§GThis unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion§!" """</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="1" t="s">
-        <v>764</v>
+        <v>800</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>801</v>
       </c>
       <c r="C499" s="1" t="str">
         <f aca="false">A499 &amp;" " &amp;"""" &amp;B499 &amp;""""</f>
-        <v> desertinfantry_at6:0"Desert Infantry VI" ""</v>
+        <v> desertinfantry_at6:0 ""Desert Infantry VI" """</v>
       </c>
       <c r="D499" s="1" t="str">
         <f aca="false">IF(ISBLANK(A499),"",C499)</f>
-        <v> desertinfantry_at6:0"Desert Infantry VI" ""</v>
+        <v> desertinfantry_at6:0 ""Desert Infantry VI" """</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="1" t="s">
-        <v>765</v>
+        <v>802</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>790</v>
       </c>
       <c r="C500" s="1" t="str">
         <f aca="false">A500 &amp;" " &amp;"""" &amp;B500 &amp;""""</f>
-        <v> desertinfantry_at6_desc:0"The sandy mountains of the desert can be treacherous to your regular Infantry. To cope in this environment, we can train our Desert Infantry to gain the upper hand in the desert.[~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]" ""</v>
+        <v> desertinfantry_at6_desc:0 ""The sandy mountains of the desert can be treacherous to your regular Infantry. To cope in this environment, we can train our Desert Infantry to gain the upper hand in the desert.\n \n§GThis unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion§!" """</v>
       </c>
       <c r="D500" s="1" t="str">
         <f aca="false">IF(ISBLANK(A500),"",C500)</f>
-        <v> desertinfantry_at6_desc:0"The sandy mountains of the desert can be treacherous to your regular Infantry. To cope in this environment, we can train our Desert Infantry to gain the upper hand in the desert.[~\n~] [~\n~][~§G~]This unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion[~§!~]" ""</v>
+        <v> desertinfantry_at6_desc:0 ""The sandy mountains of the desert can be treacherous to your regular Infantry. To cope in this environment, we can train our Desert Infantry to gain the upper hand in the desert.\n \n§GThis unit type does not count toward the Special Forces cap but instead requires 5 Support Equipment per Battalion§!" """</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10777,106 +11075,130 @@
     </row>
     <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="1" t="s">
-        <v>766</v>
+        <v>803</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>804</v>
       </c>
       <c r="C503" s="1" t="str">
         <f aca="false">A503 &amp;" " &amp;"""" &amp;B503 &amp;""""</f>
-        <v> tech_flamethrower:0"Flamethrower I" ""</v>
+        <v> tech_flamethrower:0 ""Flamethrower I" """</v>
       </c>
       <c r="D503" s="1" t="str">
         <f aca="false">IF(ISBLANK(A503),"",C503)</f>
-        <v> tech_flamethrower:0"Flamethrower I" ""</v>
+        <v> tech_flamethrower:0 ""Flamethrower I" """</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="1" t="s">
-        <v>767</v>
+        <v>805</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>806</v>
       </c>
       <c r="C504" s="1" t="str">
         <f aca="false">A504 &amp;" " &amp;"""" &amp;B504 &amp;""""</f>
-        <v> tech_flamethrower_desc:0"Flamethrowers are useful in close combat and urban warfare and against fixed fortifications. These also add a substantial soft attack to our divisions." ""</v>
+        <v> tech_flamethrower_desc:0 ""Flamethrowers are useful in close combat and urban warfare and against fixed fortifications. These also add a substantial soft attack to our divisions." """</v>
       </c>
       <c r="D504" s="1" t="str">
         <f aca="false">IF(ISBLANK(A504),"",C504)</f>
-        <v> tech_flamethrower_desc:0"Flamethrowers are useful in close combat and urban warfare and against fixed fortifications. These also add a substantial soft attack to our divisions." ""</v>
+        <v> tech_flamethrower_desc:0 ""Flamethrowers are useful in close combat and urban warfare and against fixed fortifications. These also add a substantial soft attack to our divisions." """</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="1" t="s">
-        <v>768</v>
+        <v>807</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>808</v>
       </c>
       <c r="C505" s="1" t="str">
         <f aca="false">A505 &amp;" " &amp;"""" &amp;B505 &amp;""""</f>
-        <v> tech_flamethrower2:0"Flamethrower II" ""</v>
+        <v> tech_flamethrower2:0 ""Flamethrower II" """</v>
       </c>
       <c r="D505" s="1" t="str">
         <f aca="false">IF(ISBLANK(A505),"",C505)</f>
-        <v> tech_flamethrower2:0"Flamethrower II" ""</v>
+        <v> tech_flamethrower2:0 ""Flamethrower II" """</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="1" t="s">
-        <v>769</v>
+        <v>809</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>806</v>
       </c>
       <c r="C506" s="1" t="str">
         <f aca="false">A506 &amp;" " &amp;"""" &amp;B506 &amp;""""</f>
-        <v> tech_flamethrower2_desc:0"Flamethrowers are useful in close combat and urban warfare and against fixed fortifications. These also add a substantial soft attack to our divisions." ""</v>
+        <v> tech_flamethrower2_desc:0 ""Flamethrowers are useful in close combat and urban warfare and against fixed fortifications. These also add a substantial soft attack to our divisions." """</v>
       </c>
       <c r="D506" s="1" t="str">
         <f aca="false">IF(ISBLANK(A506),"",C506)</f>
-        <v> tech_flamethrower2_desc:0"Flamethrowers are useful in close combat and urban warfare and against fixed fortifications. These also add a substantial soft attack to our divisions." ""</v>
+        <v> tech_flamethrower2_desc:0 ""Flamethrowers are useful in close combat and urban warfare and against fixed fortifications. These also add a substantial soft attack to our divisions." """</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="1" t="s">
-        <v>770</v>
+        <v>810</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>811</v>
       </c>
       <c r="C507" s="1" t="str">
         <f aca="false">A507 &amp;" " &amp;"""" &amp;B507 &amp;""""</f>
-        <v> tech_flamethrower3:0"Flamethrower III" ""</v>
+        <v> tech_flamethrower3:0 ""Flamethrower III" """</v>
       </c>
       <c r="D507" s="1" t="str">
         <f aca="false">IF(ISBLANK(A507),"",C507)</f>
-        <v> tech_flamethrower3:0"Flamethrower III" ""</v>
+        <v> tech_flamethrower3:0 ""Flamethrower III" """</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="1" t="s">
-        <v>771</v>
+        <v>812</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>806</v>
       </c>
       <c r="C508" s="1" t="str">
         <f aca="false">A508 &amp;" " &amp;"""" &amp;B508 &amp;""""</f>
-        <v> tech_flamethrower3_desc:0"Flamethrowers are useful in close combat and urban warfare and against fixed fortifications. These also add a substantial soft attack to our divisions." ""</v>
+        <v> tech_flamethrower3_desc:0 ""Flamethrowers are useful in close combat and urban warfare and against fixed fortifications. These also add a substantial soft attack to our divisions." """</v>
       </c>
       <c r="D508" s="1" t="str">
         <f aca="false">IF(ISBLANK(A508),"",C508)</f>
-        <v> tech_flamethrower3_desc:0"Flamethrowers are useful in close combat and urban warfare and against fixed fortifications. These also add a substantial soft attack to our divisions." ""</v>
+        <v> tech_flamethrower3_desc:0 ""Flamethrowers are useful in close combat and urban warfare and against fixed fortifications. These also add a substantial soft attack to our divisions." """</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="1" t="s">
-        <v>772</v>
+        <v>813</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>814</v>
       </c>
       <c r="C509" s="1" t="str">
         <f aca="false">A509 &amp;" " &amp;"""" &amp;B509 &amp;""""</f>
-        <v> tech_flamethrower4:0"Flamethrower IV" ""</v>
+        <v> tech_flamethrower4:0 ""Flamethrower IV" """</v>
       </c>
       <c r="D509" s="1" t="str">
         <f aca="false">IF(ISBLANK(A509),"",C509)</f>
-        <v> tech_flamethrower4:0"Flamethrower IV" ""</v>
+        <v> tech_flamethrower4:0 ""Flamethrower IV" """</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="1" t="s">
-        <v>773</v>
+        <v>815</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>806</v>
       </c>
       <c r="C510" s="1" t="str">
         <f aca="false">A510 &amp;" " &amp;"""" &amp;B510 &amp;""""</f>
-        <v> tech_flamethrower4_desc:0"Flamethrowers are useful in close combat and urban warfare and against fixed fortifications. These also add a substantial soft attack to our divisions." ""</v>
+        <v> tech_flamethrower4_desc:0 ""Flamethrowers are useful in close combat and urban warfare and against fixed fortifications. These also add a substantial soft attack to our divisions." """</v>
       </c>
       <c r="D510" s="1" t="str">
         <f aca="false">IF(ISBLANK(A510),"",C510)</f>
-        <v> tech_flamethrower4_desc:0"Flamethrowers are useful in close combat and urban warfare and against fixed fortifications. These also add a substantial soft attack to our divisions." ""</v>
+        <v> tech_flamethrower4_desc:0 ""Flamethrowers are useful in close combat and urban warfare and against fixed fortifications. These also add a substantial soft attack to our divisions." """</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10894,7 +11216,7 @@
     </row>
     <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="1" t="s">
-        <v>774</v>
+        <v>816</v>
       </c>
       <c r="C512" s="1" t="str">
         <f aca="false">A512 &amp;" " &amp;"""" &amp;B512 &amp;""""</f>
@@ -10907,10 +11229,10 @@
     </row>
     <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="1" t="s">
-        <v>775</v>
+        <v>817</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>776</v>
+        <v>818</v>
       </c>
       <c r="C513" s="1" t="str">
         <f aca="false">A513 &amp;" " &amp;"""" &amp;B513 &amp;""""</f>
@@ -10923,10 +11245,10 @@
     </row>
     <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="1" t="s">
-        <v>777</v>
+        <v>819</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>778</v>
+        <v>820</v>
       </c>
       <c r="C514" s="1" t="str">
         <f aca="false">A514 &amp;" " &amp;"""" &amp;B514 &amp;""""</f>
@@ -10939,10 +11261,10 @@
     </row>
     <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="1" t="s">
-        <v>779</v>
+        <v>821</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>780</v>
+        <v>822</v>
       </c>
       <c r="C515" s="1" t="str">
         <f aca="false">A515 &amp;" " &amp;"""" &amp;B515 &amp;""""</f>
@@ -10955,10 +11277,10 @@
     </row>
     <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="1" t="s">
-        <v>781</v>
+        <v>823</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>782</v>
+        <v>824</v>
       </c>
       <c r="C516" s="1" t="str">
         <f aca="false">A516 &amp;" " &amp;"""" &amp;B516 &amp;""""</f>
@@ -10984,10 +11306,10 @@
     </row>
     <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="1" t="s">
-        <v>783</v>
+        <v>825</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>784</v>
+        <v>826</v>
       </c>
       <c r="C518" s="1" t="str">
         <f aca="false">A518 &amp;" " &amp;"""" &amp;B518 &amp;""""</f>
@@ -11000,10 +11322,10 @@
     </row>
     <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="1" t="s">
-        <v>785</v>
+        <v>827</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>786</v>
+        <v>828</v>
       </c>
       <c r="C519" s="1" t="str">
         <f aca="false">A519 &amp;" " &amp;"""" &amp;B519 &amp;""""</f>
@@ -11016,10 +11338,10 @@
     </row>
     <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="1" t="s">
-        <v>787</v>
+        <v>829</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>784</v>
+        <v>826</v>
       </c>
       <c r="C520" s="1" t="str">
         <f aca="false">A520 &amp;" " &amp;"""" &amp;B520 &amp;""""</f>
@@ -11032,10 +11354,10 @@
     </row>
     <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="1" t="s">
-        <v>788</v>
+        <v>830</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>786</v>
+        <v>828</v>
       </c>
       <c r="C521" s="1" t="str">
         <f aca="false">A521 &amp;" " &amp;"""" &amp;B521 &amp;""""</f>
@@ -11061,10 +11383,10 @@
     </row>
     <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="1" t="s">
-        <v>789</v>
+        <v>831</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>790</v>
+        <v>832</v>
       </c>
       <c r="C523" s="1" t="str">
         <f aca="false">A523 &amp;" " &amp;"""" &amp;B523 &amp;""""</f>
@@ -11077,10 +11399,10 @@
     </row>
     <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="1" t="s">
-        <v>791</v>
+        <v>833</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>792</v>
+        <v>834</v>
       </c>
       <c r="C524" s="1" t="str">
         <f aca="false">A524 &amp;" " &amp;"""" &amp;B524 &amp;""""</f>
@@ -11093,10 +11415,10 @@
     </row>
     <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="1" t="s">
-        <v>793</v>
+        <v>835</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>794</v>
+        <v>836</v>
       </c>
       <c r="C525" s="1" t="str">
         <f aca="false">A525 &amp;" " &amp;"""" &amp;B525 &amp;""""</f>
@@ -11109,10 +11431,10 @@
     </row>
     <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="1" t="s">
-        <v>795</v>
+        <v>837</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>796</v>
+        <v>838</v>
       </c>
       <c r="C526" s="1" t="str">
         <f aca="false">A526 &amp;" " &amp;"""" &amp;B526 &amp;""""</f>
@@ -11125,10 +11447,10 @@
     </row>
     <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="1" t="s">
-        <v>791</v>
+        <v>833</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>797</v>
+        <v>839</v>
       </c>
       <c r="C527" s="1" t="str">
         <f aca="false">A527 &amp;" " &amp;"""" &amp;B527 &amp;""""</f>
@@ -11141,10 +11463,10 @@
     </row>
     <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="1" t="s">
-        <v>798</v>
+        <v>840</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>799</v>
+        <v>841</v>
       </c>
       <c r="C528" s="1" t="str">
         <f aca="false">A528 &amp;" " &amp;"""" &amp;B528 &amp;""""</f>
@@ -11157,10 +11479,10 @@
     </row>
     <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="1" t="s">
-        <v>800</v>
+        <v>842</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>801</v>
+        <v>843</v>
       </c>
       <c r="C529" s="1" t="str">
         <f aca="false">A529 &amp;" " &amp;"""" &amp;B529 &amp;""""</f>
@@ -11173,10 +11495,10 @@
     </row>
     <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="1" t="s">
-        <v>802</v>
+        <v>844</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>803</v>
+        <v>845</v>
       </c>
       <c r="C530" s="1" t="str">
         <f aca="false">A530 &amp;" " &amp;"""" &amp;B530 &amp;""""</f>
@@ -11189,10 +11511,10 @@
     </row>
     <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="1" t="s">
-        <v>804</v>
+        <v>846</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>805</v>
+        <v>847</v>
       </c>
       <c r="C531" s="1" t="str">
         <f aca="false">A531 &amp;" " &amp;"""" &amp;B531 &amp;""""</f>
@@ -11205,10 +11527,10 @@
     </row>
     <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="1" t="s">
-        <v>806</v>
+        <v>848</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>807</v>
+        <v>849</v>
       </c>
       <c r="C532" s="1" t="str">
         <f aca="false">A532 &amp;" " &amp;"""" &amp;B532 &amp;""""</f>
@@ -11221,10 +11543,10 @@
     </row>
     <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="1" t="s">
-        <v>808</v>
+        <v>850</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>809</v>
+        <v>851</v>
       </c>
       <c r="C533" s="1" t="str">
         <f aca="false">A533 &amp;" " &amp;"""" &amp;B533 &amp;""""</f>
@@ -11237,10 +11559,10 @@
     </row>
     <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="1" t="s">
-        <v>810</v>
+        <v>852</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>811</v>
+        <v>853</v>
       </c>
       <c r="C534" s="1" t="str">
         <f aca="false">A534 &amp;" " &amp;"""" &amp;B534 &amp;""""</f>
@@ -11253,10 +11575,10 @@
     </row>
     <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="1" t="s">
-        <v>812</v>
+        <v>854</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>813</v>
+        <v>855</v>
       </c>
       <c r="C535" s="1" t="str">
         <f aca="false">A535 &amp;" " &amp;"""" &amp;B535 &amp;""""</f>
@@ -11269,10 +11591,10 @@
     </row>
     <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="1" t="s">
-        <v>814</v>
+        <v>856</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>809</v>
+        <v>851</v>
       </c>
       <c r="C536" s="1" t="str">
         <f aca="false">A536 &amp;" " &amp;"""" &amp;B536 &amp;""""</f>
@@ -11285,10 +11607,10 @@
     </row>
     <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="1" t="s">
-        <v>815</v>
+        <v>857</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>816</v>
+        <v>858</v>
       </c>
       <c r="C537" s="1" t="str">
         <f aca="false">A537 &amp;" " &amp;"""" &amp;B537 &amp;""""</f>
@@ -11301,10 +11623,10 @@
     </row>
     <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="1" t="s">
-        <v>817</v>
+        <v>859</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="C538" s="1" t="str">
         <f aca="false">A538 &amp;" " &amp;"""" &amp;B538 &amp;""""</f>
@@ -11317,10 +11639,10 @@
     </row>
     <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="1" t="s">
-        <v>819</v>
+        <v>861</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>820</v>
+        <v>862</v>
       </c>
       <c r="C539" s="1" t="str">
         <f aca="false">A539 &amp;" " &amp;"""" &amp;B539 &amp;""""</f>
@@ -11346,10 +11668,10 @@
     </row>
     <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="1" t="s">
-        <v>821</v>
+        <v>863</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>822</v>
+        <v>864</v>
       </c>
       <c r="C541" s="1" t="str">
         <f aca="false">A541 &amp;" " &amp;"""" &amp;B541 &amp;""""</f>
@@ -11362,10 +11684,10 @@
     </row>
     <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="1" t="s">
-        <v>823</v>
+        <v>865</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>824</v>
+        <v>866</v>
       </c>
       <c r="C542" s="1" t="str">
         <f aca="false">A542 &amp;" " &amp;"""" &amp;B542 &amp;""""</f>
@@ -11378,10 +11700,10 @@
     </row>
     <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="1" t="s">
-        <v>825</v>
+        <v>867</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>826</v>
+        <v>868</v>
       </c>
       <c r="C543" s="1" t="str">
         <f aca="false">A543 &amp;" " &amp;"""" &amp;B543 &amp;""""</f>
@@ -11394,10 +11716,10 @@
     </row>
     <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="1" t="s">
-        <v>827</v>
+        <v>869</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>828</v>
+        <v>870</v>
       </c>
       <c r="C544" s="1" t="str">
         <f aca="false">A544 &amp;" " &amp;"""" &amp;B544 &amp;""""</f>
@@ -11410,10 +11732,10 @@
     </row>
     <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="1" t="s">
-        <v>829</v>
+        <v>871</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>830</v>
+        <v>872</v>
       </c>
       <c r="C545" s="1" t="str">
         <f aca="false">A545 &amp;" " &amp;"""" &amp;B545 &amp;""""</f>
@@ -11426,10 +11748,10 @@
     </row>
     <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="1" t="s">
-        <v>831</v>
+        <v>873</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>832</v>
+        <v>874</v>
       </c>
       <c r="C546" s="1" t="str">
         <f aca="false">A546 &amp;" " &amp;"""" &amp;B546 &amp;""""</f>
@@ -11442,10 +11764,10 @@
     </row>
     <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="1" t="s">
-        <v>833</v>
+        <v>875</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>834</v>
+        <v>876</v>
       </c>
       <c r="C547" s="1" t="str">
         <f aca="false">A547 &amp;" " &amp;"""" &amp;B547 &amp;""""</f>
@@ -11458,10 +11780,10 @@
     </row>
     <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="1" t="s">
-        <v>835</v>
+        <v>877</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>836</v>
+        <v>878</v>
       </c>
       <c r="C548" s="1" t="str">
         <f aca="false">A548 &amp;" " &amp;"""" &amp;B548 &amp;""""</f>
@@ -11484,10 +11806,10 @@
     </row>
     <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="1" t="s">
-        <v>837</v>
+        <v>879</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>838</v>
+        <v>880</v>
       </c>
       <c r="C550" s="1" t="str">
         <f aca="false">A550 &amp;" " &amp;"""" &amp;B550 &amp;""""</f>
@@ -11500,10 +11822,10 @@
     </row>
     <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="1" t="s">
-        <v>839</v>
+        <v>881</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>840</v>
+        <v>882</v>
       </c>
       <c r="C551" s="1" t="str">
         <f aca="false">A551 &amp;" " &amp;"""" &amp;B551 &amp;""""</f>
@@ -11516,10 +11838,10 @@
     </row>
     <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="1" t="s">
-        <v>841</v>
+        <v>883</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>842</v>
+        <v>884</v>
       </c>
       <c r="C552" s="1" t="str">
         <f aca="false">A552 &amp;" " &amp;"""" &amp;B552 &amp;""""</f>
@@ -11532,10 +11854,10 @@
     </row>
     <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="1" t="s">
-        <v>843</v>
+        <v>885</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>844</v>
+        <v>886</v>
       </c>
       <c r="C553" s="1" t="str">
         <f aca="false">A553 &amp;" " &amp;"""" &amp;B553 &amp;""""</f>
@@ -11548,10 +11870,10 @@
     </row>
     <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="1" t="s">
-        <v>845</v>
+        <v>887</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>846</v>
+        <v>888</v>
       </c>
       <c r="C554" s="1" t="str">
         <f aca="false">A554 &amp;" " &amp;"""" &amp;B554 &amp;""""</f>
@@ -11564,10 +11886,10 @@
     </row>
     <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="1" t="s">
-        <v>847</v>
+        <v>889</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>848</v>
+        <v>890</v>
       </c>
       <c r="C555" s="1" t="str">
         <f aca="false">A555 &amp;" " &amp;"""" &amp;B555 &amp;""""</f>
@@ -11580,10 +11902,10 @@
     </row>
     <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="1" t="s">
-        <v>849</v>
+        <v>891</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>850</v>
+        <v>892</v>
       </c>
       <c r="C556" s="1" t="str">
         <f aca="false">A556 &amp;" " &amp;"""" &amp;B556 &amp;""""</f>
@@ -11609,10 +11931,10 @@
     </row>
     <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="1" t="s">
-        <v>851</v>
+        <v>893</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>852</v>
+        <v>894</v>
       </c>
       <c r="C558" s="1" t="str">
         <f aca="false">A558 &amp;" " &amp;"""" &amp;B558 &amp;""""</f>
@@ -11625,10 +11947,10 @@
     </row>
     <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="1" t="s">
-        <v>853</v>
+        <v>895</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>854</v>
+        <v>896</v>
       </c>
       <c r="C559" s="1" t="str">
         <f aca="false">A559 &amp;" " &amp;"""" &amp;B559 &amp;""""</f>
@@ -11641,10 +11963,10 @@
     </row>
     <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="1" t="s">
-        <v>855</v>
+        <v>897</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>856</v>
+        <v>898</v>
       </c>
       <c r="C560" s="1" t="str">
         <f aca="false">A560 &amp;" " &amp;"""" &amp;B560 &amp;""""</f>
@@ -11657,10 +11979,10 @@
     </row>
     <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="1" t="s">
-        <v>857</v>
+        <v>899</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>858</v>
+        <v>900</v>
       </c>
       <c r="C561" s="1" t="str">
         <f aca="false">A561 &amp;" " &amp;"""" &amp;B561 &amp;""""</f>
@@ -11673,10 +11995,10 @@
     </row>
     <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="1" t="s">
-        <v>859</v>
+        <v>901</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>860</v>
+        <v>902</v>
       </c>
       <c r="C562" s="1" t="str">
         <f aca="false">A562 &amp;" " &amp;"""" &amp;B562 &amp;""""</f>
@@ -11689,10 +12011,10 @@
     </row>
     <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="1" t="s">
-        <v>861</v>
+        <v>903</v>
       </c>
       <c r="B563" s="1" t="s">
-        <v>862</v>
+        <v>904</v>
       </c>
       <c r="C563" s="1" t="str">
         <f aca="false">A563 &amp;" " &amp;"""" &amp;B563 &amp;""""</f>
@@ -11705,10 +12027,10 @@
     </row>
     <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="1" t="s">
-        <v>863</v>
+        <v>905</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>864</v>
+        <v>906</v>
       </c>
       <c r="C564" s="1" t="str">
         <f aca="false">A564 &amp;" " &amp;"""" &amp;B564 &amp;""""</f>
@@ -11721,10 +12043,10 @@
     </row>
     <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="1" t="s">
-        <v>865</v>
+        <v>907</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>866</v>
+        <v>908</v>
       </c>
       <c r="C565" s="1" t="str">
         <f aca="false">A565 &amp;" " &amp;"""" &amp;B565 &amp;""""</f>
@@ -11737,10 +12059,10 @@
     </row>
     <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="1" t="s">
-        <v>867</v>
+        <v>909</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>868</v>
+        <v>910</v>
       </c>
       <c r="C566" s="1" t="str">
         <f aca="false">A566 &amp;" " &amp;"""" &amp;B566 &amp;""""</f>
@@ -11753,10 +12075,10 @@
     </row>
     <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="1" t="s">
-        <v>869</v>
+        <v>911</v>
       </c>
       <c r="B567" s="1" t="s">
-        <v>870</v>
+        <v>912</v>
       </c>
       <c r="C567" s="1" t="str">
         <f aca="false">A567 &amp;" " &amp;"""" &amp;B567 &amp;""""</f>
@@ -11769,10 +12091,10 @@
     </row>
     <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="1" t="s">
-        <v>871</v>
+        <v>913</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>872</v>
+        <v>914</v>
       </c>
       <c r="C568" s="1" t="str">
         <f aca="false">A568 &amp;" " &amp;"""" &amp;B568 &amp;""""</f>
@@ -11798,10 +12120,10 @@
     </row>
     <row r="570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="1" t="s">
-        <v>873</v>
+        <v>915</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>874</v>
+        <v>916</v>
       </c>
       <c r="C570" s="1" t="str">
         <f aca="false">A570 &amp;" " &amp;"""" &amp;B570 &amp;""""</f>
@@ -11814,10 +12136,10 @@
     </row>
     <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="1" t="s">
-        <v>875</v>
+        <v>917</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>876</v>
+        <v>918</v>
       </c>
       <c r="C571" s="1" t="str">
         <f aca="false">A571 &amp;" " &amp;"""" &amp;B571 &amp;""""</f>
@@ -11830,10 +12152,10 @@
     </row>
     <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="1" t="s">
-        <v>877</v>
+        <v>919</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>878</v>
+        <v>920</v>
       </c>
       <c r="C572" s="1" t="str">
         <f aca="false">A572 &amp;" " &amp;"""" &amp;B572 &amp;""""</f>
@@ -11846,10 +12168,10 @@
     </row>
     <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="1" t="s">
-        <v>879</v>
+        <v>921</v>
       </c>
       <c r="B573" s="1" t="s">
-        <v>880</v>
+        <v>922</v>
       </c>
       <c r="C573" s="1" t="str">
         <f aca="false">A573 &amp;" " &amp;"""" &amp;B573 &amp;""""</f>
@@ -11862,10 +12184,10 @@
     </row>
     <row r="574" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="1" t="s">
-        <v>881</v>
+        <v>923</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>882</v>
+        <v>924</v>
       </c>
       <c r="C574" s="1" t="str">
         <f aca="false">A574 &amp;" " &amp;"""" &amp;B574 &amp;""""</f>
@@ -11878,10 +12200,10 @@
     </row>
     <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="1" t="s">
-        <v>883</v>
+        <v>925</v>
       </c>
       <c r="B575" s="1" t="s">
-        <v>884</v>
+        <v>926</v>
       </c>
       <c r="C575" s="1" t="str">
         <f aca="false">A575 &amp;" " &amp;"""" &amp;B575 &amp;""""</f>
@@ -11894,10 +12216,10 @@
     </row>
     <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="1" t="s">
-        <v>885</v>
+        <v>927</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>886</v>
+        <v>928</v>
       </c>
       <c r="C576" s="1" t="str">
         <f aca="false">A576 &amp;" " &amp;"""" &amp;B576 &amp;""""</f>
@@ -11910,10 +12232,10 @@
     </row>
     <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="1" t="s">
-        <v>887</v>
+        <v>929</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>888</v>
+        <v>930</v>
       </c>
       <c r="C577" s="1" t="str">
         <f aca="false">A577 &amp;" " &amp;"""" &amp;B577 &amp;""""</f>
@@ -11926,10 +12248,10 @@
     </row>
     <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="1" t="s">
-        <v>889</v>
+        <v>931</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>890</v>
+        <v>932</v>
       </c>
       <c r="C578" s="1" t="str">
         <f aca="false">A578 &amp;" " &amp;"""" &amp;B578 &amp;""""</f>
@@ -11942,10 +12264,10 @@
     </row>
     <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="1" t="s">
-        <v>891</v>
+        <v>933</v>
       </c>
       <c r="B579" s="1" t="s">
-        <v>892</v>
+        <v>934</v>
       </c>
       <c r="C579" s="1" t="str">
         <f aca="false">A579 &amp;" " &amp;"""" &amp;B579 &amp;""""</f>
@@ -11958,10 +12280,10 @@
     </row>
     <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="1" t="s">
-        <v>893</v>
+        <v>935</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>894</v>
+        <v>936</v>
       </c>
       <c r="C580" s="1" t="str">
         <f aca="false">A580 &amp;" " &amp;"""" &amp;B580 &amp;""""</f>
@@ -11974,10 +12296,10 @@
     </row>
     <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="1" t="s">
-        <v>895</v>
+        <v>937</v>
       </c>
       <c r="B581" s="1" t="s">
-        <v>896</v>
+        <v>938</v>
       </c>
       <c r="C581" s="1" t="str">
         <f aca="false">A581 &amp;" " &amp;"""" &amp;B581 &amp;""""</f>
@@ -11990,10 +12312,10 @@
     </row>
     <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="1" t="s">
-        <v>897</v>
+        <v>939</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>898</v>
+        <v>940</v>
       </c>
       <c r="C582" s="1" t="str">
         <f aca="false">A582 &amp;" " &amp;"""" &amp;B582 &amp;""""</f>
@@ -12006,10 +12328,10 @@
     </row>
     <row r="583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="1" t="s">
-        <v>899</v>
+        <v>941</v>
       </c>
       <c r="B583" s="1" t="s">
-        <v>896</v>
+        <v>938</v>
       </c>
       <c r="C583" s="1" t="str">
         <f aca="false">A583 &amp;" " &amp;"""" &amp;B583 &amp;""""</f>
@@ -12022,10 +12344,10 @@
     </row>
     <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="1" t="s">
-        <v>900</v>
+        <v>942</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>901</v>
+        <v>943</v>
       </c>
       <c r="C584" s="1" t="str">
         <f aca="false">A584 &amp;" " &amp;"""" &amp;B584 &amp;""""</f>
@@ -12038,10 +12360,10 @@
     </row>
     <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="1" t="s">
-        <v>902</v>
+        <v>944</v>
       </c>
       <c r="B585" s="1" t="s">
-        <v>903</v>
+        <v>945</v>
       </c>
       <c r="C585" s="1" t="str">
         <f aca="false">A585 &amp;" " &amp;"""" &amp;B585 &amp;""""</f>
@@ -12054,10 +12376,10 @@
     </row>
     <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="1" t="s">
-        <v>904</v>
+        <v>946</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>905</v>
+        <v>947</v>
       </c>
       <c r="C586" s="1" t="str">
         <f aca="false">A586 &amp;" " &amp;"""" &amp;B586 &amp;""""</f>
@@ -12070,10 +12392,10 @@
     </row>
     <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="1" t="s">
-        <v>906</v>
+        <v>948</v>
       </c>
       <c r="B587" s="1" t="s">
-        <v>907</v>
+        <v>949</v>
       </c>
       <c r="C587" s="1" t="str">
         <f aca="false">A587 &amp;" " &amp;"""" &amp;B587 &amp;""""</f>
@@ -12086,10 +12408,10 @@
     </row>
     <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="1" t="s">
-        <v>908</v>
+        <v>950</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>909</v>
+        <v>951</v>
       </c>
       <c r="C588" s="1" t="str">
         <f aca="false">A588 &amp;" " &amp;"""" &amp;B588 &amp;""""</f>
@@ -12102,10 +12424,10 @@
     </row>
     <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="1" t="s">
-        <v>910</v>
+        <v>952</v>
       </c>
       <c r="B589" s="1" t="s">
-        <v>911</v>
+        <v>953</v>
       </c>
       <c r="C589" s="1" t="str">
         <f aca="false">A589 &amp;" " &amp;"""" &amp;B589 &amp;""""</f>
@@ -12118,10 +12440,10 @@
     </row>
     <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="1" t="s">
-        <v>912</v>
+        <v>954</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>913</v>
+        <v>955</v>
       </c>
       <c r="C590" s="1" t="str">
         <f aca="false">A590 &amp;" " &amp;"""" &amp;B590 &amp;""""</f>
@@ -12134,10 +12456,10 @@
     </row>
     <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="1" t="s">
-        <v>914</v>
+        <v>956</v>
       </c>
       <c r="B591" s="1" t="s">
-        <v>915</v>
+        <v>957</v>
       </c>
       <c r="C591" s="1" t="str">
         <f aca="false">A591 &amp;" " &amp;"""" &amp;B591 &amp;""""</f>
@@ -12150,10 +12472,10 @@
     </row>
     <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="1" t="s">
-        <v>916</v>
+        <v>958</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>917</v>
+        <v>959</v>
       </c>
       <c r="C592" s="1" t="str">
         <f aca="false">A592 &amp;" " &amp;"""" &amp;B592 &amp;""""</f>
@@ -12166,10 +12488,10 @@
     </row>
     <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="1" t="s">
-        <v>918</v>
+        <v>960</v>
       </c>
       <c r="B593" s="1" t="s">
-        <v>919</v>
+        <v>961</v>
       </c>
       <c r="C593" s="1" t="str">
         <f aca="false">A593 &amp;" " &amp;"""" &amp;B593 &amp;""""</f>
@@ -12182,10 +12504,10 @@
     </row>
     <row r="594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="1" t="s">
-        <v>920</v>
+        <v>962</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>921</v>
+        <v>963</v>
       </c>
       <c r="C594" s="1" t="str">
         <f aca="false">A594 &amp;" " &amp;"""" &amp;B594 &amp;""""</f>
@@ -12208,10 +12530,10 @@
     </row>
     <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="1" t="s">
-        <v>922</v>
+        <v>964</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>923</v>
+        <v>965</v>
       </c>
       <c r="C596" s="1" t="str">
         <f aca="false">A596 &amp;" " &amp;"""" &amp;B596 &amp;""""</f>
@@ -12224,10 +12546,10 @@
     </row>
     <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="1" t="s">
-        <v>924</v>
+        <v>966</v>
       </c>
       <c r="B597" s="1" t="s">
-        <v>925</v>
+        <v>967</v>
       </c>
       <c r="C597" s="1" t="str">
         <f aca="false">A597 &amp;" " &amp;"""" &amp;B597 &amp;""""</f>
@@ -12240,10 +12562,10 @@
     </row>
     <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="1" t="s">
-        <v>926</v>
+        <v>968</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>927</v>
+        <v>969</v>
       </c>
       <c r="C598" s="1" t="str">
         <f aca="false">A598 &amp;" " &amp;"""" &amp;B598 &amp;""""</f>
@@ -12256,10 +12578,10 @@
     </row>
     <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="1" t="s">
-        <v>928</v>
+        <v>970</v>
       </c>
       <c r="B599" s="1" t="s">
-        <v>929</v>
+        <v>971</v>
       </c>
       <c r="C599" s="1" t="str">
         <f aca="false">A599 &amp;" " &amp;"""" &amp;B599 &amp;""""</f>
@@ -12272,10 +12594,10 @@
     </row>
     <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="1" t="s">
-        <v>930</v>
+        <v>972</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>931</v>
+        <v>973</v>
       </c>
       <c r="C600" s="1" t="str">
         <f aca="false">A600 &amp;" " &amp;"""" &amp;B600 &amp;""""</f>
@@ -12288,10 +12610,10 @@
     </row>
     <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="1" t="s">
-        <v>932</v>
+        <v>974</v>
       </c>
       <c r="B601" s="1" t="s">
-        <v>933</v>
+        <v>975</v>
       </c>
       <c r="C601" s="1" t="str">
         <f aca="false">A601 &amp;" " &amp;"""" &amp;B601 &amp;""""</f>
@@ -12304,10 +12626,10 @@
     </row>
     <row r="602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="1" t="s">
-        <v>934</v>
+        <v>976</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>935</v>
+        <v>977</v>
       </c>
       <c r="C602" s="1" t="str">
         <f aca="false">A602 &amp;" " &amp;"""" &amp;B602 &amp;""""</f>
@@ -12320,10 +12642,10 @@
     </row>
     <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="1" t="s">
-        <v>936</v>
+        <v>978</v>
       </c>
       <c r="B603" s="1" t="s">
-        <v>937</v>
+        <v>979</v>
       </c>
       <c r="C603" s="1" t="str">
         <f aca="false">A603 &amp;" " &amp;"""" &amp;B603 &amp;""""</f>
@@ -12336,10 +12658,10 @@
     </row>
     <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="1" t="s">
-        <v>938</v>
+        <v>980</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>939</v>
+        <v>981</v>
       </c>
       <c r="C604" s="1" t="str">
         <f aca="false">A604 &amp;" " &amp;"""" &amp;B604 &amp;""""</f>
@@ -12365,7 +12687,7 @@
     </row>
     <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="1" t="s">
-        <v>940</v>
+        <v>982</v>
       </c>
       <c r="C606" s="1" t="str">
         <f aca="false">A606 &amp;" " &amp;"""" &amp;B606 &amp;""""</f>
@@ -12391,10 +12713,10 @@
     </row>
     <row r="608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="1" t="s">
-        <v>941</v>
+        <v>983</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>942</v>
+        <v>984</v>
       </c>
       <c r="C608" s="1" t="str">
         <f aca="false">A608 &amp;" " &amp;"""" &amp;B608 &amp;""""</f>
@@ -12420,10 +12742,10 @@
     </row>
     <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="1" t="s">
-        <v>943</v>
+        <v>985</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>944</v>
+        <v>986</v>
       </c>
       <c r="C610" s="1" t="str">
         <f aca="false">A610 &amp;" " &amp;"""" &amp;B610 &amp;""""</f>
@@ -12436,10 +12758,10 @@
     </row>
     <row r="611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="1" t="s">
-        <v>945</v>
+        <v>987</v>
       </c>
       <c r="B611" s="1" t="s">
-        <v>946</v>
+        <v>988</v>
       </c>
       <c r="C611" s="1" t="str">
         <f aca="false">A611 &amp;" " &amp;"""" &amp;B611 &amp;""""</f>
@@ -12452,10 +12774,10 @@
     </row>
     <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="1" t="s">
-        <v>947</v>
+        <v>989</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>948</v>
+        <v>990</v>
       </c>
       <c r="C612" s="1" t="str">
         <f aca="false">A612 &amp;" " &amp;"""" &amp;B612 &amp;""""</f>
@@ -12468,10 +12790,10 @@
     </row>
     <row r="613" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="1" t="s">
-        <v>949</v>
+        <v>991</v>
       </c>
       <c r="B613" s="1" t="s">
-        <v>950</v>
+        <v>992</v>
       </c>
       <c r="C613" s="1" t="str">
         <f aca="false">A613 &amp;" " &amp;"""" &amp;B613 &amp;""""</f>
@@ -12494,10 +12816,10 @@
     </row>
     <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="1" t="s">
-        <v>951</v>
+        <v>993</v>
       </c>
       <c r="B615" s="1" t="s">
-        <v>952</v>
+        <v>994</v>
       </c>
       <c r="C615" s="1" t="str">
         <f aca="false">A615 &amp;" " &amp;"""" &amp;B615 &amp;""""</f>
@@ -12520,10 +12842,10 @@
     </row>
     <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="1" t="s">
-        <v>953</v>
+        <v>995</v>
       </c>
       <c r="B617" s="1" t="s">
-        <v>954</v>
+        <v>996</v>
       </c>
       <c r="C617" s="1" t="str">
         <f aca="false">A617 &amp;" " &amp;"""" &amp;B617 &amp;""""</f>
@@ -12536,10 +12858,10 @@
     </row>
     <row r="618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="1" t="s">
-        <v>955</v>
+        <v>997</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>956</v>
+        <v>998</v>
       </c>
       <c r="C618" s="1" t="str">
         <f aca="false">A618 &amp;" " &amp;"""" &amp;B618 &amp;""""</f>
@@ -12562,10 +12884,10 @@
     </row>
     <row r="620" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="1" t="s">
-        <v>957</v>
+        <v>999</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>958</v>
+        <v>1000</v>
       </c>
       <c r="C620" s="1" t="str">
         <f aca="false">A620 &amp;" " &amp;"""" &amp;B620 &amp;""""</f>
@@ -12578,10 +12900,10 @@
     </row>
     <row r="621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="1" t="s">
-        <v>959</v>
+        <v>1001</v>
       </c>
       <c r="B621" s="1" t="s">
-        <v>960</v>
+        <v>1002</v>
       </c>
       <c r="C621" s="1" t="str">
         <f aca="false">A621 &amp;" " &amp;"""" &amp;B621 &amp;""""</f>
@@ -12594,10 +12916,10 @@
     </row>
     <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="1" t="s">
-        <v>961</v>
+        <v>1003</v>
       </c>
       <c r="B622" s="1" t="s">
-        <v>954</v>
+        <v>996</v>
       </c>
       <c r="C622" s="1" t="str">
         <f aca="false">A622 &amp;" " &amp;"""" &amp;B622 &amp;""""</f>
@@ -12610,7 +12932,7 @@
     </row>
     <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="1" t="s">
-        <v>962</v>
+        <v>1004</v>
       </c>
       <c r="C623" s="1" t="str">
         <f aca="false">A623 &amp;" " &amp;"""" &amp;B623 &amp;""""</f>
@@ -12633,10 +12955,10 @@
     </row>
     <row r="625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="1" t="s">
-        <v>963</v>
+        <v>1005</v>
       </c>
       <c r="B625" s="1" t="s">
-        <v>964</v>
+        <v>1006</v>
       </c>
       <c r="C625" s="1" t="str">
         <f aca="false">A625 &amp;" " &amp;"""" &amp;B625 &amp;""""</f>
@@ -12649,7 +12971,7 @@
     </row>
     <row r="626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="1" t="s">
-        <v>965</v>
+        <v>1007</v>
       </c>
       <c r="C626" s="1" t="str">
         <f aca="false">A626 &amp;" " &amp;"""" &amp;B626 &amp;""""</f>
@@ -12662,10 +12984,10 @@
     </row>
     <row r="627" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="1" t="s">
-        <v>966</v>
+        <v>1008</v>
       </c>
       <c r="B627" s="1" t="s">
-        <v>967</v>
+        <v>1009</v>
       </c>
       <c r="C627" s="1" t="str">
         <f aca="false">A627 &amp;" " &amp;"""" &amp;B627 &amp;""""</f>
@@ -12678,7 +13000,7 @@
     </row>
     <row r="628" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="1" t="s">
-        <v>968</v>
+        <v>1010</v>
       </c>
       <c r="C628" s="1" t="str">
         <f aca="false">A628 &amp;" " &amp;"""" &amp;B628 &amp;""""</f>
@@ -12691,10 +13013,10 @@
     </row>
     <row r="629" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="1" t="s">
-        <v>969</v>
+        <v>1011</v>
       </c>
       <c r="B629" s="1" t="s">
-        <v>970</v>
+        <v>1012</v>
       </c>
       <c r="C629" s="1" t="str">
         <f aca="false">A629 &amp;" " &amp;"""" &amp;B629 &amp;""""</f>
@@ -12707,7 +13029,7 @@
     </row>
     <row r="630" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="1" t="s">
-        <v>971</v>
+        <v>1013</v>
       </c>
       <c r="C630" s="1" t="str">
         <f aca="false">A630 &amp;" " &amp;"""" &amp;B630 &amp;""""</f>
@@ -12730,10 +13052,10 @@
     </row>
     <row r="632" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="1" t="s">
-        <v>972</v>
+        <v>1014</v>
       </c>
       <c r="B632" s="1" t="s">
-        <v>973</v>
+        <v>1015</v>
       </c>
       <c r="C632" s="1" t="str">
         <f aca="false">A632 &amp;" " &amp;"""" &amp;B632 &amp;""""</f>
@@ -12746,7 +13068,7 @@
     </row>
     <row r="633" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="1" t="s">
-        <v>974</v>
+        <v>1016</v>
       </c>
       <c r="C633" s="1" t="str">
         <f aca="false">A633 &amp;" " &amp;"""" &amp;B633 &amp;""""</f>
@@ -12759,10 +13081,10 @@
     </row>
     <row r="634" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="1" t="s">
-        <v>975</v>
+        <v>1017</v>
       </c>
       <c r="B634" s="1" t="s">
-        <v>976</v>
+        <v>1018</v>
       </c>
       <c r="C634" s="1" t="str">
         <f aca="false">A634 &amp;" " &amp;"""" &amp;B634 &amp;""""</f>
@@ -12775,7 +13097,7 @@
     </row>
     <row r="635" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="1" t="s">
-        <v>977</v>
+        <v>1019</v>
       </c>
       <c r="C635" s="1" t="str">
         <f aca="false">A635 &amp;" " &amp;"""" &amp;B635 &amp;""""</f>
@@ -12798,10 +13120,10 @@
     </row>
     <row r="637" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="1" t="s">
-        <v>978</v>
+        <v>1020</v>
       </c>
       <c r="B637" s="1" t="s">
-        <v>979</v>
+        <v>1021</v>
       </c>
       <c r="C637" s="1" t="str">
         <f aca="false">A637 &amp;" " &amp;"""" &amp;B637 &amp;""""</f>
@@ -12814,7 +13136,7 @@
     </row>
     <row r="638" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="1" t="s">
-        <v>980</v>
+        <v>1022</v>
       </c>
       <c r="C638" s="1" t="str">
         <f aca="false">A638 &amp;" " &amp;"""" &amp;B638 &amp;""""</f>
@@ -12827,10 +13149,10 @@
     </row>
     <row r="639" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="1" t="s">
-        <v>981</v>
+        <v>1023</v>
       </c>
       <c r="B639" s="1" t="s">
-        <v>982</v>
+        <v>1024</v>
       </c>
       <c r="C639" s="1" t="str">
         <f aca="false">A639 &amp;" " &amp;"""" &amp;B639 &amp;""""</f>
@@ -12843,7 +13165,7 @@
     </row>
     <row r="640" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="1" t="s">
-        <v>983</v>
+        <v>1025</v>
       </c>
       <c r="C640" s="1" t="str">
         <f aca="false">A640 &amp;" " &amp;"""" &amp;B640 &amp;""""</f>
@@ -12856,10 +13178,10 @@
     </row>
     <row r="641" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="1" t="s">
-        <v>984</v>
+        <v>1026</v>
       </c>
       <c r="B641" s="1" t="s">
-        <v>985</v>
+        <v>1027</v>
       </c>
       <c r="C641" s="1" t="str">
         <f aca="false">A641 &amp;" " &amp;"""" &amp;B641 &amp;""""</f>
@@ -12872,7 +13194,7 @@
     </row>
     <row r="642" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="1" t="s">
-        <v>986</v>
+        <v>1028</v>
       </c>
       <c r="C642" s="1" t="str">
         <f aca="false">A642 &amp;" " &amp;"""" &amp;B642 &amp;""""</f>
@@ -12895,10 +13217,10 @@
     </row>
     <row r="644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="1" t="s">
-        <v>987</v>
+        <v>1029</v>
       </c>
       <c r="B644" s="1" t="s">
-        <v>988</v>
+        <v>1030</v>
       </c>
       <c r="C644" s="1" t="str">
         <f aca="false">A644 &amp;" " &amp;"""" &amp;B644 &amp;""""</f>
@@ -12911,7 +13233,7 @@
     </row>
     <row r="645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="1" t="s">
-        <v>989</v>
+        <v>1031</v>
       </c>
       <c r="C645" s="1" t="str">
         <f aca="false">A645 &amp;" " &amp;"""" &amp;B645 &amp;""""</f>
@@ -12924,10 +13246,10 @@
     </row>
     <row r="646" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="1" t="s">
-        <v>990</v>
+        <v>1032</v>
       </c>
       <c r="B646" s="1" t="s">
-        <v>991</v>
+        <v>1033</v>
       </c>
       <c r="C646" s="1" t="str">
         <f aca="false">A646 &amp;" " &amp;"""" &amp;B646 &amp;""""</f>
@@ -12940,7 +13262,7 @@
     </row>
     <row r="647" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="1" t="s">
-        <v>992</v>
+        <v>1034</v>
       </c>
       <c r="C647" s="1" t="str">
         <f aca="false">A647 &amp;" " &amp;"""" &amp;B647 &amp;""""</f>
@@ -12953,10 +13275,10 @@
     </row>
     <row r="648" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="1" t="s">
-        <v>993</v>
+        <v>1035</v>
       </c>
       <c r="B648" s="1" t="s">
-        <v>994</v>
+        <v>1036</v>
       </c>
       <c r="C648" s="1" t="str">
         <f aca="false">A648 &amp;" " &amp;"""" &amp;B648 &amp;""""</f>
@@ -12969,7 +13291,7 @@
     </row>
     <row r="649" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="1" t="s">
-        <v>995</v>
+        <v>1037</v>
       </c>
       <c r="C649" s="1" t="str">
         <f aca="false">A649 &amp;" " &amp;"""" &amp;B649 &amp;""""</f>
@@ -13002,10 +13324,10 @@
     </row>
     <row r="652" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="1" t="s">
-        <v>996</v>
+        <v>1038</v>
       </c>
       <c r="B652" s="1" t="s">
-        <v>997</v>
+        <v>1039</v>
       </c>
       <c r="C652" s="1" t="str">
         <f aca="false">A652 &amp;" " &amp;"""" &amp;B652 &amp;""""</f>
@@ -13018,7 +13340,7 @@
     </row>
     <row r="653" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="1" t="s">
-        <v>998</v>
+        <v>1040</v>
       </c>
     </row>
   </sheetData>
